--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C3FD76-2989-D948-B716-B4217BA024F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6536A989-05C5-E747-8F82-016DFB87B597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="8140" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
   <si>
     <t>№ 
 п/п</t>
@@ -112,16 +108,6 @@
     <t>Январь</t>
   </si>
   <si>
-    <t>Названия строк</t>
-  </si>
-  <si>
-    <t>Общий итог</t>
-  </si>
-  <si>
-    <t>Сумма по полю Ожидаемая выручка
-без НДС (руб.)</t>
-  </si>
-  <si>
     <t>Подразделение_сокр</t>
   </si>
   <si>
@@ -168,16 +154,16 @@
   </si>
   <si>
     <t>НО сопровождения НИОКР и ИС</t>
+  </si>
+  <si>
+    <t>Метрологический отдел</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +198,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,31 +255,13 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -311,555 +272,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Автор" refreshedDate="44811.494410416664" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="71" xr:uid="{00000000-000A-0000-FFFF-FFFF2B000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E72" sheet="Лист1"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="№ _x000a_п/п" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="76"/>
-    </cacheField>
-    <cacheField name="Подразделение" numFmtId="0">
-      <sharedItems count="8">
-        <s v="Научное отделение № 4 (НО № 4)"/>
-        <s v="Научное отделение № 5 - Испытательный центр (НО № 5 - ИЦ)"/>
-        <s v="Научное отделение № 7 (НО № 7)"/>
-        <s v="Научное отделение № 8 (НО № 8)"/>
-        <s v="Научное отделение № 9 (НО № 9)"/>
-        <s v="Научное отделение № 10 (НО № 10)"/>
-        <s v="Научное отделение сопровождения НИОКР и информационных систем (НО СНИОКР и ИС)"/>
-        <s v="Отдел капитального строительства (ОКС)"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Месяц отгрузки" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Ожидаемая выручка_x000a_без НДС (руб.)" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1397402191.4700003"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="71">
-  <r>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="Сентябрь"/>
-    <n v="25349350.779999983"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="Октябрь"/>
-    <n v="110234864.91000001"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="0"/>
-    <s v="Ноябрь"/>
-    <n v="52894431.640000001"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="0"/>
-    <s v="Декабрь"/>
-    <n v="65835857.850000001"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="1"/>
-    <s v="Сентябрь"/>
-    <n v="1590558.36"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="1"/>
-    <s v="Октябрь"/>
-    <n v="1590558.36"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="1"/>
-    <s v="Ноябрь"/>
-    <n v="1590558.36"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="1"/>
-    <s v="Декабрь"/>
-    <n v="2593340.04"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="2"/>
-    <s v="Сентябрь"/>
-    <n v="161423868.21000004"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="2"/>
-    <s v="Октябрь"/>
-    <n v="168823810.28000003"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="2"/>
-    <s v="Ноябрь"/>
-    <n v="126705572.31999999"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <x v="2"/>
-    <s v="Декабрь"/>
-    <n v="148680420.22"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <x v="3"/>
-    <s v="Сентябрь"/>
-    <n v="1144400"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <x v="3"/>
-    <s v="Октябрь"/>
-    <n v="214000000"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <x v="3"/>
-    <s v="Ноябрь"/>
-    <n v="40046000"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <x v="3"/>
-    <s v="Декабрь"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <x v="4"/>
-    <s v="Сентябрь"/>
-    <n v="50208.21"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <x v="4"/>
-    <s v="Октябрь"/>
-    <n v="41893341.619999997"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <x v="4"/>
-    <s v="Ноябрь"/>
-    <n v="17250036.800000001"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <x v="4"/>
-    <s v="Декабрь"/>
-    <n v="13907432.07"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <x v="5"/>
-    <s v="Сентябрь"/>
-    <n v="1190373.33"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <x v="5"/>
-    <s v="Октябрь"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <x v="5"/>
-    <s v="Ноябрь"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="5"/>
-    <s v="Декабрь"/>
-    <n v="1397402191.4700003"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <x v="6"/>
-    <s v="Август"/>
-    <n v="319867.2"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <x v="0"/>
-    <s v="Август"/>
-    <n v="23946487.48"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <x v="1"/>
-    <s v="Август"/>
-    <n v="2988224.66"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <x v="2"/>
-    <s v="Август"/>
-    <n v="62635984.109999999"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <x v="3"/>
-    <s v="Август"/>
-    <n v="2129000"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <x v="6"/>
-    <s v="Июль"/>
-    <n v="348734.4"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <x v="0"/>
-    <s v="Июль"/>
-    <n v="35130055.25"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <x v="1"/>
-    <s v="Июль"/>
-    <n v="3243719.03"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <x v="2"/>
-    <s v="Июль"/>
-    <n v="102878353.05"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <x v="3"/>
-    <s v="Июль"/>
-    <n v="5046280"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <x v="4"/>
-    <s v="Июль"/>
-    <n v="21780685.710000001"/>
-  </r>
-  <r>
-    <n v="41"/>
-    <x v="6"/>
-    <s v="Июнь"/>
-    <n v="239085.6"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <x v="0"/>
-    <s v="Июнь"/>
-    <n v="24456972.73"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <x v="1"/>
-    <s v="Июнь"/>
-    <n v="2533532.42"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <x v="2"/>
-    <s v="Июнь"/>
-    <n v="116723532.17"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <x v="3"/>
-    <s v="Июнь"/>
-    <n v="40161000"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <x v="4"/>
-    <s v="Июнь"/>
-    <n v="607712.51"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <x v="7"/>
-    <s v="Июнь"/>
-    <n v="9012.48"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <x v="6"/>
-    <s v="Май"/>
-    <n v="626930.4"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <x v="0"/>
-    <s v="Май"/>
-    <n v="24326256.280000001"/>
-  </r>
-  <r>
-    <n v="50"/>
-    <x v="1"/>
-    <s v="Май"/>
-    <n v="2736806.54"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <x v="2"/>
-    <s v="Май"/>
-    <n v="117459252.19"/>
-  </r>
-  <r>
-    <n v="52"/>
-    <x v="3"/>
-    <s v="Май"/>
-    <n v="45354000"/>
-  </r>
-  <r>
-    <n v="53"/>
-    <x v="4"/>
-    <s v="Май"/>
-    <n v="4573800.74"/>
-  </r>
-  <r>
-    <n v="54"/>
-    <x v="6"/>
-    <s v="Апрель"/>
-    <n v="281455.2"/>
-  </r>
-  <r>
-    <n v="55"/>
-    <x v="0"/>
-    <s v="Апрель"/>
-    <n v="26598120.579999998"/>
-  </r>
-  <r>
-    <n v="56"/>
-    <x v="1"/>
-    <s v="Апрель"/>
-    <n v="4690583.24"/>
-  </r>
-  <r>
-    <n v="57"/>
-    <x v="2"/>
-    <s v="Апрель"/>
-    <n v="118679020.95"/>
-  </r>
-  <r>
-    <n v="58"/>
-    <x v="3"/>
-    <s v="Апрель"/>
-    <n v="16315000"/>
-  </r>
-  <r>
-    <n v="59"/>
-    <x v="4"/>
-    <s v="Апрель"/>
-    <n v="4590399.99"/>
-  </r>
-  <r>
-    <n v="60"/>
-    <x v="6"/>
-    <s v="Март"/>
-    <n v="342711.34"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <x v="0"/>
-    <s v="Март"/>
-    <n v="41326011.490000002"/>
-  </r>
-  <r>
-    <n v="62"/>
-    <x v="1"/>
-    <s v="Март"/>
-    <n v="1632700.19"/>
-  </r>
-  <r>
-    <n v="63"/>
-    <x v="2"/>
-    <s v="Март"/>
-    <n v="117468674.95"/>
-  </r>
-  <r>
-    <n v="64"/>
-    <x v="3"/>
-    <s v="Март"/>
-    <n v="24544000"/>
-  </r>
-  <r>
-    <n v="65"/>
-    <x v="4"/>
-    <s v="Март"/>
-    <n v="21541131.550000001"/>
-  </r>
-  <r>
-    <n v="66"/>
-    <x v="6"/>
-    <s v="Февраль"/>
-    <n v="78123.5"/>
-  </r>
-  <r>
-    <n v="67"/>
-    <x v="0"/>
-    <s v="Февраль"/>
-    <n v="26411340.960000001"/>
-  </r>
-  <r>
-    <n v="68"/>
-    <x v="1"/>
-    <s v="Февраль"/>
-    <n v="2284369.5699999998"/>
-  </r>
-  <r>
-    <n v="69"/>
-    <x v="2"/>
-    <s v="Февраль"/>
-    <n v="110138598.78"/>
-  </r>
-  <r>
-    <n v="70"/>
-    <x v="3"/>
-    <s v="Февраль"/>
-    <n v="11245600"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <x v="6"/>
-    <s v="Январь"/>
-    <n v="89953.83"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <x v="0"/>
-    <s v="Январь"/>
-    <n v="27856735.899999999"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <x v="1"/>
-    <s v="Январь"/>
-    <n v="2323526.79"/>
-  </r>
-  <r>
-    <n v="74"/>
-    <x v="2"/>
-    <s v="Январь"/>
-    <n v="127326985.68000001"/>
-  </r>
-  <r>
-    <n v="75"/>
-    <x v="3"/>
-    <s v="Январь"/>
-    <n v="18486100"/>
-  </r>
-  <r>
-    <n v="76"/>
-    <x v="4"/>
-    <s v="Январь"/>
-    <n v="3173023.34"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Сумма по полю Ожидаемая выручка_x000a_без НДС (руб.)" fld="3" baseField="0" baseItem="0" numFmtId="4"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1125,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1148,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1165,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -1182,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -1199,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
@@ -1216,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -1233,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -1250,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
@@ -1267,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -1284,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
@@ -1301,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>15</v>
@@ -1318,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -1335,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
@@ -1352,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>15</v>
@@ -1369,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -1386,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
@@ -1403,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
@@ -1420,7 +832,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -1437,7 +849,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
@@ -1454,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>15</v>
@@ -1471,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>11</v>
@@ -1488,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
@@ -1505,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
@@ -1522,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
@@ -1539,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
@@ -1556,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
@@ -1573,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>17</v>
@@ -1590,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
@@ -1607,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
@@ -1624,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
@@ -1641,7 +1053,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>17</v>
@@ -1658,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>18</v>
@@ -1675,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>18</v>
@@ -1692,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>18</v>
@@ -1709,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>18</v>
@@ -1726,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>18</v>
@@ -1743,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>18</v>
@@ -1760,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>18</v>
@@ -1777,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>19</v>
@@ -1794,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>19</v>
@@ -1811,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>19</v>
@@ -1828,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>19</v>
@@ -1845,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>19</v>
@@ -1862,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>19</v>
@@ -1879,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>20</v>
@@ -1896,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>20</v>
@@ -1913,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>20</v>
@@ -1930,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>20</v>
@@ -1947,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>20</v>
@@ -1964,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>20</v>
@@ -1981,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>21</v>
@@ -1998,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>21</v>
@@ -2015,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>21</v>
@@ -2032,7 +1444,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>21</v>
@@ -2049,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>21</v>
@@ -2066,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>21</v>
@@ -2083,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>22</v>
@@ -2100,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>22</v>
@@ -2117,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>22</v>
@@ -2134,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>22</v>
@@ -2151,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>22</v>
@@ -2168,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>23</v>
@@ -2185,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>23</v>
@@ -2202,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>23</v>
@@ -2219,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>23</v>
@@ -2236,7 +1648,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>23</v>
@@ -2253,7 +1665,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>23</v>
@@ -2267,16 +1679,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="6">
-        <v>25349400</v>
+        <v>23736100</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1">
@@ -2284,16 +1696,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="6">
-        <v>2929500</v>
+        <v>2797800</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1">
@@ -2301,16 +1713,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="6">
-        <v>205958700</v>
+        <v>202890300</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1">
@@ -2318,10 +1730,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>12</v>
@@ -2335,27 +1747,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="6">
-        <v>50200</v>
-      </c>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>12</v>
@@ -2369,10 +1779,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>12</v>
@@ -2381,149 +1791,26 @@
         <v>477900</v>
       </c>
     </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1682100</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="85.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1398592564.8000002</v>
-      </c>
-      <c r="C4">
-        <v>1398.6</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D9" si="0">C4-B4/1000000</f>
-        <v>7.435199999690667E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>484366485.8499999</v>
-      </c>
-      <c r="C5">
-        <v>498.7</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>14.333514150000099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>29798477.559999999</v>
-      </c>
-      <c r="C6" s="10">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.20152244000000152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1478944072.9100001</v>
-      </c>
-      <c r="C7">
-        <v>1478.9</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-4.4072910000068077E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>418471380</v>
-      </c>
-      <c r="C8">
-        <v>418.5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>2.8619999999989432E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
-        <v>129367772.53999999</v>
-      </c>
-      <c r="C9">
-        <v>129.4</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3.2227460000001429E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2326861.4700000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <v>9012.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3941876627.6099997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6536A989-05C5-E747-8F82-016DFB87B597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA7690F-4910-A74F-AB59-911936B52778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="8140" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1755,7 +1755,9 @@
       <c r="D71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
       <c r="A72" s="3">

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA7690F-4910-A74F-AB59-911936B52778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B10CCB-CEAC-CC40-B55B-D13EF212A48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="8140" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="40">
   <si>
     <t>№ 
 п/п</t>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>НО сопровождения НИОКР и ИС</t>
-  </si>
-  <si>
-    <t>Метрологический отдел</t>
   </si>
 </sst>
 </file>
@@ -537,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="B74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1793,23 +1790,6 @@
         <v>477900</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="6">
-        <v>1682100</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B10CCB-CEAC-CC40-B55B-D13EF212A48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325CB78-BD6A-374B-A444-564E2F3C8F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="8140" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
   <si>
     <t>№ 
 п/п</t>
@@ -154,13 +154,16 @@
   </si>
   <si>
     <t>НО сопровождения НИОКР и ИС</t>
+  </si>
+  <si>
+    <t>Метрологический отдел</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +198,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,7 +243,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,6 +261,8 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="B74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1790,6 +1801,23 @@
         <v>477900</v>
       </c>
     </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1682100</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325CB78-BD6A-374B-A444-564E2F3C8F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38015391-B1EB-F74A-A5B0-399E3E99606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="8140" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9320" yWindow="800" windowWidth="24760" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="36">
   <si>
     <t>№ 
 п/п</t>
@@ -63,12 +63,6 @@
     <t>Научное отделение № 9 (НО № 9)</t>
   </si>
   <si>
-    <t>Научное отделение сопровождения НИОКР и информационных систем (НО СНИОКР и ИС)</t>
-  </si>
-  <si>
-    <t>Отдел капитального строительства (ОКС)</t>
-  </si>
-  <si>
     <t>Август</t>
   </si>
   <si>
@@ -129,12 +123,6 @@
     <t>НО № 10</t>
   </si>
   <si>
-    <t>НО СНИОКР и ИС</t>
-  </si>
-  <si>
-    <t>ОКС</t>
-  </si>
-  <si>
     <t xml:space="preserve">Научное отделение №4                                              </t>
   </si>
   <si>
@@ -153,17 +141,14 @@
     <t>Научное отделение №10</t>
   </si>
   <si>
-    <t>НО сопровождения НИОКР и ИС</t>
-  </si>
-  <si>
-    <t>Метрологический отдел</t>
+    <t>Прочие</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,12 +183,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +222,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,8 +240,9 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -545,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -557,7 +537,8 @@
     <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="4"/>
+    <col min="6" max="6" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="30">
@@ -568,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -585,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6">
         <v>110234864.91000001</v>
@@ -602,10 +583,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6">
         <v>52894431.640000001</v>
@@ -619,10 +600,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6">
         <v>65835857.850000001</v>
@@ -636,10 +617,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6">
         <v>1590558.36</v>
@@ -653,10 +634,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6">
         <v>1590558.36</v>
@@ -670,10 +651,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6">
         <v>2593340.04</v>
@@ -687,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6">
         <v>168823810.28000003</v>
@@ -704,10 +685,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6">
         <v>126705572.31999999</v>
@@ -721,10 +702,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6">
         <v>148680420.22</v>
@@ -738,10 +719,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6">
         <v>214000000</v>
@@ -755,10 +736,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6">
         <v>40046000</v>
@@ -772,10 +753,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -789,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="6">
         <v>41893341.619999997</v>
@@ -806,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6">
         <v>17250036.800000001</v>
@@ -823,84 +804,84 @@
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="6">
         <v>13907432.07</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1">
+    <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
+    <row r="19" spans="1:6" s="2" customFormat="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="6">
         <v>1397402191.4700003</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="20" spans="1:6" s="2" customFormat="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E20" s="6">
         <v>319867.2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1">
+    <row r="21" spans="1:6" s="2" customFormat="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -908,16 +889,16 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="6">
         <v>23946487.48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1">
+    <row r="22" spans="1:6" s="2" customFormat="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -925,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="6">
         <v>2988224.66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1">
+    <row r="23" spans="1:6" s="2" customFormat="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -942,16 +923,16 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6">
         <v>62635984.109999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
+    <row r="24" spans="1:6" s="2" customFormat="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -959,33 +940,33 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="6">
         <v>2129000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="25" spans="1:6" s="2" customFormat="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" s="6">
         <v>348734.4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
+    <row r="26" spans="1:6" s="2" customFormat="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -993,16 +974,16 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="6">
         <v>35130055.25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1">
+    <row r="27" spans="1:6" s="2" customFormat="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1010,16 +991,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" s="6">
         <v>3243719.03</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1027,16 +1008,16 @@
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="6">
         <v>102878353.05</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1">
+    <row r="29" spans="1:6" s="2" customFormat="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1044,16 +1025,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" s="6">
         <v>5046280</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1">
+    <row r="30" spans="1:6" s="2" customFormat="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1061,33 +1042,34 @@
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" s="6">
         <v>21780685.710000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="31" spans="1:6" s="2" customFormat="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="6">
-        <v>239085.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1">
+        <v>248098.08000000002</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1095,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="6">
         <v>24456972.73</v>
@@ -1112,10 +1094,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="6">
         <v>2533532.42</v>
@@ -1129,10 +1111,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="6">
         <v>116723532.17</v>
@@ -1146,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" s="6">
         <v>40161000</v>
@@ -1163,10 +1145,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="6">
         <v>607712.51</v>
@@ -1174,652 +1156,616 @@
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="6">
-        <v>9012.48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="30">
+        <v>626930.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E38" s="6">
-        <v>626930.4</v>
+        <v>24326256.280000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E39" s="6">
-        <v>24326256.280000001</v>
+        <v>2736806.54</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E40" s="6">
-        <v>2736806.54</v>
+        <v>117459252.19</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E41" s="6">
-        <v>117459252.19</v>
+        <v>45354000</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E42" s="6">
-        <v>45354000</v>
+        <v>4573800.74</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="6">
-        <v>4573800.74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" ht="30">
+        <v>281455.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E44" s="6">
-        <v>281455.2</v>
+        <v>26598120.579999998</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E45" s="6">
-        <v>26598120.579999998</v>
+        <v>4690583.24</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E46" s="6">
-        <v>4690583.24</v>
+        <v>118679020.95</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E47" s="6">
-        <v>118679020.95</v>
+        <v>16315000</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E48" s="6">
-        <v>16315000</v>
+        <v>4590399.99</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" s="6">
-        <v>4590399.99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="30">
+        <v>342711.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E50" s="6">
-        <v>342711.34</v>
+        <v>41326011.490000002</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E51" s="6">
-        <v>41326011.490000002</v>
+        <v>1632700.19</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E52" s="6">
-        <v>1632700.19</v>
+        <v>117468674.95</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E53" s="6">
-        <v>117468674.95</v>
+        <v>24544000</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E54" s="6">
-        <v>24544000</v>
+        <v>21541131.550000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55" s="6">
-        <v>21541131.550000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" ht="30">
+        <v>78123.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E56" s="6">
-        <v>78123.5</v>
+        <v>26411340.960000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E57" s="6">
-        <v>26411340.960000001</v>
+        <v>2284369.5699999998</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E58" s="6">
-        <v>2284369.5699999998</v>
+        <v>110138598.78</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E59" s="6">
-        <v>110138598.78</v>
+        <v>11245600</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" s="6">
-        <v>11245600</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="30">
+        <v>89953.83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E61" s="6">
-        <v>89953.83</v>
+        <v>27856735.899999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E62" s="6">
-        <v>27856735.899999999</v>
+        <v>2323526.79</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="2" customFormat="1">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E63" s="6">
-        <v>2323526.79</v>
+        <v>127326985.68000001</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64" s="6">
-        <v>127326985.68000001</v>
+        <v>18486100</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" s="6">
-        <v>18486100</v>
+        <v>3173023.34</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E66" s="6">
-        <v>3173023.34</v>
+        <v>23736100</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E67" s="6">
-        <v>23736100</v>
+        <v>2797800</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E68" s="6">
-        <v>2797800</v>
+        <v>202890300</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1">
       <c r="A69" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E69" s="6">
-        <v>202890300</v>
+        <v>4196800</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1">
       <c r="A70" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="6">
-        <v>4196800</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1">
       <c r="A71" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E71" s="6">
-        <v>0</v>
+        <v>1190400</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
       <c r="A72" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E72" s="6">
-        <v>1190400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="2" customFormat="1">
-      <c r="A73" s="3">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="6">
-        <v>477900</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="8">
-        <v>1682100</v>
+        <v>2160000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:E72" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38015391-B1EB-F74A-A5B0-399E3E99606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDE0C30-8FC6-3B47-B1BE-01DE412C93EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9320" yWindow="800" windowWidth="24760" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E72"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1728,7 +1728,9 @@
       <c r="D70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1">
       <c r="A71" s="3">

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDE0C30-8FC6-3B47-B1BE-01DE412C93EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED0E92-F7DB-8849-9599-07E6B6BA6DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="800" windowWidth="24760" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$74</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="30">
   <si>
     <t>№ 
 п/п</t>
@@ -121,24 +121,6 @@
   </si>
   <si>
     <t>НО № 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Научное отделение №4                                              </t>
-  </si>
-  <si>
-    <t>Научное отделение № 5 - испытательный центр</t>
-  </si>
-  <si>
-    <t>Научное отделение №7</t>
-  </si>
-  <si>
-    <t>Научное отделение №8</t>
-  </si>
-  <si>
-    <t>Научное отделение №9</t>
-  </si>
-  <si>
-    <t>Научное отделение №10</t>
   </si>
   <si>
     <t>Прочие</t>
@@ -524,11 +506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -560,24 +542,24 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6">
-        <v>110234864.91000001</v>
+        <v>281455.2</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -586,112 +568,112 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6">
-        <v>52894431.640000001</v>
+        <v>26598120.579999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6">
-        <v>65835857.850000001</v>
+        <v>4690583.24</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6">
-        <v>1590558.36</v>
+        <v>118679020.95</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6">
-        <v>1590558.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
+        <v>16315000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6">
-        <v>2593340.04</v>
+        <v>4590399.99</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6">
-        <v>168823810.28000003</v>
+        <v>65835857.850000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="6">
-        <v>126705572.31999999</v>
+        <v>2593340.04</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1">
@@ -713,7 +695,7 @@
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -722,168 +704,169 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6">
-        <v>214000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="6">
-        <v>40046000</v>
+        <v>13907432.07</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>1397402191.4700003</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E14" s="6">
-        <v>41893341.619999997</v>
+        <v>348734.4</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6">
-        <v>17250036.800000001</v>
+        <v>35130055.25</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1">
       <c r="A16" s="3">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E16" s="6">
-        <v>13907432.07</v>
+        <v>3243719.03</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>102878353.05</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>5046280</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6">
-        <v>1397402191.4700003</v>
+        <v>21780685.710000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6">
-        <v>319867.2</v>
-      </c>
+        <v>248098.08000000002</v>
+      </c>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
@@ -892,15 +875,15 @@
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E21" s="6">
-        <v>23946487.48</v>
+        <v>24456972.73</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -909,15 +892,15 @@
         <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E22" s="6">
-        <v>2988224.66</v>
+        <v>2533532.42</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -926,15 +909,15 @@
         <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E23" s="6">
-        <v>62635984.109999999</v>
+        <v>116723532.17</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
@@ -943,237 +926,236 @@
         <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E24" s="6">
-        <v>2129000</v>
+        <v>40161000</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="6">
-        <v>348734.4</v>
+        <v>607712.51</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" s="6">
-        <v>35130055.25</v>
+        <v>626930.4</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27" s="6">
-        <v>3243719.03</v>
+        <v>24326256.280000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28" s="6">
-        <v>102878353.05</v>
+        <v>2736806.54</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29" s="6">
-        <v>5046280</v>
+        <v>117459252.19</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30" s="6">
-        <v>21780685.710000001</v>
+        <v>45354000</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" s="6">
-        <v>248098.08000000002</v>
-      </c>
-      <c r="F31" s="7"/>
+        <v>4573800.74</v>
+      </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E32" s="6">
-        <v>24456972.73</v>
+        <v>342711.34</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E33" s="6">
-        <v>2533532.42</v>
+        <v>41326011.490000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E34" s="6">
-        <v>116723532.17</v>
+        <v>1632700.19</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E35" s="6">
-        <v>40161000</v>
+        <v>117468674.95</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E36" s="6">
-        <v>607712.51</v>
+        <v>24544000</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E37" s="6">
-        <v>626930.4</v>
+        <v>21541131.550000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
@@ -1182,15 +1164,15 @@
         <v>23</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E38" s="6">
-        <v>24326256.280000001</v>
+        <v>52894431.640000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
@@ -1199,15 +1181,15 @@
         <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E39" s="6">
-        <v>2736806.54</v>
+        <v>1590558.36</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>6</v>
@@ -1216,15 +1198,15 @@
         <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E40" s="6">
-        <v>117459252.19</v>
+        <v>126705572.31999999</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>7</v>
@@ -1233,15 +1215,15 @@
         <v>26</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E41" s="6">
-        <v>45354000</v>
+        <v>40046000</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="3">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>8</v>
@@ -1250,32 +1232,32 @@
         <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E42" s="6">
-        <v>4573800.74</v>
+        <v>17250036.800000001</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" s="3">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E43" s="6">
-        <v>281455.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>4</v>
@@ -1284,15 +1266,15 @@
         <v>23</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E44" s="6">
-        <v>26598120.579999998</v>
+        <v>110234864.91000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -1301,15 +1283,15 @@
         <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E45" s="6">
-        <v>4690583.24</v>
+        <v>1590558.36</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="3">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>6</v>
@@ -1318,15 +1300,15 @@
         <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E46" s="6">
-        <v>118679020.95</v>
+        <v>168823810.28000003</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
       <c r="A47" s="3">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>7</v>
@@ -1335,439 +1317,467 @@
         <v>26</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E47" s="6">
-        <v>16315000</v>
+        <v>214000000</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="3">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="6">
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1">
+      <c r="A49" s="3">
+        <v>13</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="6">
-        <v>4590399.99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="2" customFormat="1">
-      <c r="A49" s="3">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E49" s="6">
-        <v>342711.34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1">
+        <f>41945697.6</f>
+        <v>41945697.600000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1">
       <c r="A50" s="3">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1">
+      <c r="A51" s="3">
+        <v>66</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2160010</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1">
+      <c r="A52" s="3">
+        <v>67</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1190370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1">
+      <c r="A53" s="3">
+        <v>68</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="6">
-        <v>41326011.490000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1">
-      <c r="A51" s="3">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="6">
+        <v>23736100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1">
+      <c r="A54" s="3">
+        <v>69</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1632700.19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1">
-      <c r="A52" s="3">
-        <v>52</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2903180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1">
+      <c r="A55" s="3">
+        <v>70</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="6">
-        <v>117468674.95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1">
-      <c r="A53" s="3">
-        <v>53</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="D55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="6">
+        <v>202892160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1">
+      <c r="A56" s="3">
+        <v>71</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="6">
-        <v>24544000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1">
-      <c r="A54" s="3">
-        <v>54</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6">
+        <v>4196800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1">
+      <c r="A57" s="3">
+        <v>72</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="6">
-        <v>21541131.550000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1">
-      <c r="A55" s="3">
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="2" customFormat="1">
+      <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="6">
-        <v>78123.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1">
-      <c r="A56" s="3">
-        <v>56</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="6">
-        <v>26411340.960000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1">
-      <c r="A57" s="3">
-        <v>57</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="6">
-        <v>2284369.5699999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="2" customFormat="1">
-      <c r="A58" s="3">
-        <v>58</v>
-      </c>
       <c r="B58" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="6">
-        <v>110138598.78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1">
+        <v>78123.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="6">
+        <v>26411340.960000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2284369.5699999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="6">
+        <v>110138598.78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="6">
         <v>11245600</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="2" customFormat="1">
-      <c r="A60" s="3">
+    <row r="63" spans="1:6" s="2" customFormat="1">
+      <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="6">
-        <v>89953.83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1">
-      <c r="A61" s="3">
-        <v>61</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="6">
-        <v>27856735.899999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="2" customFormat="1">
-      <c r="A62" s="3">
-        <v>62</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="6">
-        <v>2323526.79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1">
-      <c r="A63" s="3">
-        <v>63</v>
-      </c>
       <c r="B63" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="6">
-        <v>127326985.68000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="2" customFormat="1">
+        <v>89953.83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E64" s="6">
-        <v>18486100</v>
+        <v>27856735.899999999</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="6">
-        <v>3173023.34</v>
+        <v>2323526.79</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E66" s="6">
-        <v>23736100</v>
+        <v>127326985.68000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1">
       <c r="A67" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E67" s="6">
-        <v>2797800</v>
+        <v>18486100</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1">
       <c r="A68" s="3">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3173023.34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="6">
+        <v>23946490</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="6">
+        <v>3221560</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6">
-        <v>202890300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="2" customFormat="1">
-      <c r="A69" s="3">
-        <v>69</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="6">
+        <v>64135980</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="6">
-        <v>4196800</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="2" customFormat="1">
-      <c r="A70" s="3">
-        <v>70</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="D72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="6">
+        <v>2129000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="2" customFormat="1">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6">
+      <c r="D73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="2" customFormat="1">
-      <c r="A71" s="3">
-        <v>71</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1190400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="2" customFormat="1">
-      <c r="A72" s="3">
-        <v>72</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="6">
-        <v>2160000</v>
+    <row r="74" spans="1:5" s="2" customFormat="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="6">
+        <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E72" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:E74" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
+      <sortCondition ref="D1:D72"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED0E92-F7DB-8849-9599-07E6B6BA6DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E67050-FC55-7F4B-B8CE-14E5C6E3D733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="940" windowWidth="24200" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1354,7 +1354,6 @@
         <v>11</v>
       </c>
       <c r="E49" s="6">
-        <f>41945697.6</f>
         <v>41945697.600000001</v>
       </c>
     </row>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E67050-FC55-7F4B-B8CE-14E5C6E3D733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BF85E9-49A2-E541-A71E-4D377BDDE2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="940" windowWidth="24200" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$74</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="autoNoTable"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -220,6 +220,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -510,20 +513,21 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,14 +544,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -557,7 +561,7 @@
         <v>281455.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
+    <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="3">
         <v>44</v>
       </c>
@@ -574,7 +578,7 @@
         <v>26598120.579999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="3">
         <v>45</v>
       </c>
@@ -591,7 +595,7 @@
         <v>4690583.24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="3">
         <v>46</v>
       </c>
@@ -608,7 +612,7 @@
         <v>118679020.95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="3">
         <v>47</v>
       </c>
@@ -625,7 +629,7 @@
         <v>16315000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="3">
         <v>48</v>
       </c>
@@ -642,7 +646,7 @@
         <v>4590399.99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1">
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -656,10 +660,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="6">
-        <v>65835857.850000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1">
+        <v>65835899.999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -673,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="6">
-        <v>2593340.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1">
+        <v>3106300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -690,10 +694,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="6">
-        <v>148680420.22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1">
+        <v>148680400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="3">
         <v>12</v>
       </c>
@@ -710,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -724,10 +728,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="6">
-        <v>13907432.07</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1">
+        <v>13713900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="3">
         <v>18</v>
       </c>
@@ -741,27 +745,28 @@
         <v>13</v>
       </c>
       <c r="E13" s="6">
-        <v>1397402191.4700003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1">
+        <v>1397402200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="3">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6">
-        <v>348734.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1">
+        <v>1531802.2000000002</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="3">
         <v>25</v>
       </c>
@@ -778,7 +783,7 @@
         <v>35130055.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1">
+    <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="3">
         <v>26</v>
       </c>
@@ -795,7 +800,7 @@
         <v>3243719.03</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" spans="1:5" s="2" customFormat="1">
       <c r="A17" s="3">
         <v>27</v>
       </c>
@@ -812,7 +817,7 @@
         <v>102878353.05</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
+    <row r="18" spans="1:5" s="2" customFormat="1">
       <c r="A18" s="3">
         <v>28</v>
       </c>
@@ -829,7 +834,7 @@
         <v>5046280</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
+    <row r="19" spans="1:5" s="2" customFormat="1">
       <c r="A19" s="3">
         <v>29</v>
       </c>
@@ -846,117 +851,116 @@
         <v>21780685.710000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
+    <row r="20" spans="1:5" s="2" customFormat="1">
       <c r="A20" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="6">
-        <v>248098.08000000002</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
+        <v>24456972.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1">
       <c r="A21" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="6">
-        <v>24456972.73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
+        <v>2533532.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1">
       <c r="A22" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="6">
-        <v>2533532.42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1">
+        <v>116723532.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1">
       <c r="A23" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="6">
-        <v>116723532.17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1">
+        <v>40161000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="6">
-        <v>40161000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1">
+        <v>607712.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="3">
-        <v>35</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="6">
-        <v>607712.51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
+        <v>9012.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="3">
         <v>37</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -966,7 +970,7 @@
         <v>626930.4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
+    <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" s="3">
         <v>38</v>
       </c>
@@ -983,7 +987,7 @@
         <v>24326256.280000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" s="3">
         <v>39</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>2736806.54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
+    <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>117459252.19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
+    <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" s="3">
         <v>41</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>45354000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
+    <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31" s="3">
         <v>42</v>
       </c>
@@ -1051,14 +1055,14 @@
         <v>4573800.74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
+    <row r="32" spans="1:5" s="2" customFormat="1">
       <c r="A32" s="3">
         <v>49</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1167,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="6">
-        <v>52894431.640000001</v>
+        <v>52894400</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1">
@@ -1184,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="6">
-        <v>1590558.36</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
@@ -1201,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="6">
-        <v>126705572.31999999</v>
+        <v>126705800</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1">
@@ -1235,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="6">
-        <v>17250036.800000001</v>
+        <v>17250000</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
@@ -1269,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="6">
-        <v>110234864.91000001</v>
+        <v>110234900</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
@@ -1286,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="6">
-        <v>1590558.36</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
@@ -1303,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="6">
-        <v>168823810.28000003</v>
+        <v>168823800</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
@@ -1327,17 +1331,17 @@
       <c r="A48" s="3">
         <v>10</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="6">
-        <v>115200</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1">
@@ -1354,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="6">
-        <v>41945697.600000001</v>
+        <v>41893300</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1">
@@ -1378,10 +1382,10 @@
       <c r="A51" s="3">
         <v>66</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -1390,7 +1394,7 @@
       <c r="E51" s="6">
         <v>2160010</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1">
       <c r="A52" s="3">
@@ -1498,10 +1502,10 @@
       <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -1583,10 +1587,10 @@
       <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -1682,7 +1686,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
@@ -1696,8 +1702,10 @@
         <v>23946490</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="2" customFormat="1">
-      <c r="A70" s="3"/>
+    <row r="70" spans="1:5" s="2" customFormat="1" ht="30">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +1720,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1">
-      <c r="A71" s="3"/>
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
       <c r="B71" s="3" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1737,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1754,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1">
-      <c r="A73" s="3"/>
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
       <c r="B73" s="3" t="s">
         <v>8</v>
       </c>
@@ -1757,11 +1771,13 @@
       </c>
     </row>
     <row r="74" spans="1:5" s="2" customFormat="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -1772,11 +1788,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E74" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
-      <sortCondition ref="D1:D72"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BF85E9-49A2-E541-A71E-4D377BDDE2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C0FEE-5F45-BE4B-A217-B91146E156F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="1340" windowWidth="30240" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="30">
   <si>
     <t>№ 
 п/п</t>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -220,9 +220,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -510,19 +507,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="52.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
@@ -548,10 +544,10 @@
       <c r="A2" s="3">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -752,19 +748,19 @@
       <c r="A14" s="3">
         <v>24</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6">
-        <v>1531802.2000000002</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>1540814.6800000002</v>
+      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="3">
@@ -938,376 +934,376 @@
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="3">
-        <v>36</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="6">
-        <v>9012.48</v>
+        <v>626930.4</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="3">
-        <v>37</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="6">
-        <v>626930.4</v>
+        <v>24326256.280000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="6">
-        <v>24326256.280000001</v>
+        <v>2736806.54</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="6">
-        <v>2736806.54</v>
+        <v>117459252.19</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="6">
-        <v>117459252.19</v>
+        <v>45354000</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="6">
-        <v>45354000</v>
+        <v>4573800.74</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31" s="6">
-        <v>4573800.74</v>
+        <v>342711.34</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1">
       <c r="A32" s="3">
-        <v>49</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="6">
-        <v>342711.34</v>
+        <v>41326011.490000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1">
       <c r="A33" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="6">
-        <v>41326011.490000002</v>
+        <v>1632700.19</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1">
       <c r="A34" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="6">
-        <v>1632700.19</v>
+        <v>117468674.95</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1">
       <c r="A35" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="6">
-        <v>117468674.95</v>
+        <v>24544000</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="6">
-        <v>24544000</v>
+        <v>21541131.550000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E37" s="6">
-        <v>21541131.550000001</v>
+        <v>52894400</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="6">
-        <v>52894400</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="6">
-        <v>1590600</v>
+        <v>126705800</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="6">
-        <v>126705800</v>
+        <v>40046000</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="6">
-        <v>40046000</v>
+        <v>17250000</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="3">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="6">
-        <v>17250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <v>110234900</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="6">
-        <v>110234900</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="6">
-        <v>1590600</v>
+        <v>168823800</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="3">
+        <v>10</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="6">
-        <v>168823800</v>
+        <v>214000000</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
@@ -1315,480 +1311,462 @@
         <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="6">
-        <v>214000000</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="3">
-        <v>10</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="6">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="2" customFormat="1">
+        <v>41893300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="6">
-        <v>41893300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" s="3">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2160010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1">
+      <c r="A51" s="3">
+        <v>67</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1">
-      <c r="A51" s="3">
-        <v>66</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="6">
-        <v>2160010</v>
-      </c>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" s="2" customFormat="1">
+        <v>1190370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1">
       <c r="A52" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="6">
-        <v>1190370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1">
+        <v>23736100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1">
       <c r="A53" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="6">
-        <v>23736100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="2" customFormat="1">
+        <v>2903180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1">
       <c r="A54" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <v>2903180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1">
+        <v>202892160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1">
       <c r="A55" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="6">
-        <v>202892160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="2" customFormat="1">
+        <v>4196800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="6">
-        <v>4196800</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1">
       <c r="A57" s="3">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="2" customFormat="1">
+        <v>78123.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1">
       <c r="A58" s="3">
-        <v>55</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="6">
-        <v>78123.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="2" customFormat="1">
+        <v>26411340.960000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="6">
-        <v>26411340.960000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="2" customFormat="1">
+        <v>2284369.5699999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1">
       <c r="A60" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="6">
-        <v>2284369.5699999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="2" customFormat="1">
+        <v>110138598.78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1">
       <c r="A61" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="6">
-        <v>110138598.78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="2" customFormat="1">
+        <v>11245600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1">
       <c r="A62" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E62" s="6">
-        <v>11245600</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1">
+        <v>89953.83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1">
       <c r="A63" s="3">
-        <v>60</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="6">
-        <v>89953.83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1">
+        <v>27856735.899999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E64" s="6">
-        <v>27856735.899999999</v>
+        <v>2323526.79</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="6">
-        <v>2323526.79</v>
+        <v>127326985.68000001</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="6">
-        <v>127326985.68000001</v>
+        <v>18486100</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1">
       <c r="A67" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="6">
-        <v>18486100</v>
+        <v>3173023.34</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1">
       <c r="A68" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E68" s="6">
-        <v>3173023.34</v>
+        <v>23946490</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1">
       <c r="A69" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="6">
-        <v>23946490</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="2" customFormat="1" ht="30">
+        <v>3221560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1">
       <c r="A70" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="6">
-        <v>3221560</v>
+        <v>64135980</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1">
       <c r="A71" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="6">
-        <v>64135980</v>
+        <v>2129000</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
       <c r="A72" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="6">
-        <v>2129000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1">
       <c r="A73" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="2" customFormat="1">
-      <c r="A74" s="3">
-        <v>71</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="6">
         <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C0FEE-5F45-BE4B-A217-B91146E156F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F49B8-B934-F54A-81DB-659065BCB2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1340" windowWidth="30240" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$E$74</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="31">
   <si>
     <t>№ 
 п/п</t>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>НО № 10</t>
+  </si>
+  <si>
+    <t>Текущая дата: 14.10.2022</t>
   </si>
   <si>
     <t>Прочие</t>
@@ -130,12 +133,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,28 +212,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -523,787 +537,781 @@
     <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="3">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6">
-        <v>281455.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="6">
-        <v>26598120.579999998</v>
+        <v>281455.2</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="6">
-        <v>4690583.24</v>
+        <v>26598120.579999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="6">
-        <v>118679020.95</v>
+        <v>4690583.24</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="6">
-        <v>16315000</v>
+        <v>118679020.95</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6">
-        <v>4590399.99</v>
+        <v>16315000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6">
-        <v>65835899.999999993</v>
+        <v>4590399.99</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="6">
-        <v>3106300</v>
+        <v>65835899.999999993</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="6">
-        <v>148680400</v>
+        <v>3106300</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <f>114436.5*1000</f>
+        <v>114436500</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="6">
-        <v>13713900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="6">
-        <v>1397402200</v>
+        <f>5089.46*1000</f>
+        <v>5089460</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="6">
-        <v>1540814.6800000002</v>
-      </c>
-      <c r="F14" s="7"/>
+        <f>1334120.4*1000</f>
+        <v>1334120400</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6">
-        <v>35130055.25</v>
-      </c>
+        <v>596798.07999999996</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6">
-        <v>3243719.03</v>
+        <v>35130055.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1">
       <c r="A17" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>102878353.05</v>
+        <v>3243719.03</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1">
       <c r="A18" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="6">
-        <v>5046280</v>
+        <v>102878353.05</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1">
       <c r="A19" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="6">
-        <v>21780685.710000001</v>
+        <v>5046280</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1">
       <c r="A20" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6">
-        <v>24456972.73</v>
+        <v>21780685.710000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1">
       <c r="A21" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="6">
-        <v>2533532.42</v>
+        <v>24456972.73</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1">
       <c r="A22" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="6">
-        <v>116723532.17</v>
+        <v>2533532.42</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1">
       <c r="A23" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="6">
-        <v>40161000</v>
+        <v>116723532.17</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="6">
-        <v>607712.51</v>
+        <v>40161000</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="6">
-        <v>626930.4</v>
+        <v>607712.51</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="6">
-        <v>24326256.280000001</v>
+        <v>626930.4</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="6">
-        <v>2736806.54</v>
+        <v>24326256.280000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="6">
-        <v>117459252.19</v>
+        <v>2736806.54</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="6">
-        <v>45354000</v>
+        <v>117459252.19</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="6">
-        <v>4573800.74</v>
+        <v>45354000</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31" s="3">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E31" s="6">
-        <v>342711.34</v>
+        <v>4573800.74</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1">
       <c r="A32" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="6">
-        <v>41326011.490000002</v>
+        <v>342711.34</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1">
       <c r="A33" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="6">
-        <v>1632700.19</v>
+        <v>41326011.490000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1">
       <c r="A34" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="6">
-        <v>117468674.95</v>
+        <v>1632700.19</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1">
       <c r="A35" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="6">
-        <v>24544000</v>
+        <v>117468674.95</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="6">
-        <v>21541131.550000001</v>
+        <v>24544000</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E37" s="6">
-        <v>52894400</v>
+        <v>21541131.550000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="6">
-        <v>1590600</v>
+        <v>52894400</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="6">
-        <v>126705800</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="6">
-        <v>40046000</v>
+        <f>135527.7*1000</f>
+        <v>135527700</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="6">
-        <v>17250000</v>
+        <v>40046000</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <f>25874.5*1000</f>
+        <v>25874500</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" s="6">
-        <v>110234900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="6">
-        <v>1590600</v>
+        <v>110234900</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="6">
-        <v>168823800</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="6">
-        <v>214000000</v>
+        <f>178184.5*1000</f>
+        <v>178184500</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
@@ -1311,462 +1319,483 @@
         <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="6">
-        <v>12800</v>
+        <v>214000000</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="6">
-        <v>41893300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="2" customFormat="1">
+        <f>115.2*1000</f>
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1">
       <c r="A49" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="6">
+        <f>42103.2*1000</f>
+        <v>42103200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1">
+      <c r="A50" s="3">
+        <v>16</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1">
-      <c r="A50" s="3">
+    <row r="51" spans="1:6" s="2" customFormat="1">
+      <c r="A51" s="3">
         <v>66</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="6">
-        <v>2160010</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1">
-      <c r="A51" s="3">
-        <v>67</v>
-      </c>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="6">
-        <v>1190370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1">
+        <v>2160010</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1">
       <c r="A52" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="6">
-        <v>23736100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1">
+        <v>1190370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1">
       <c r="A53" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="6">
-        <v>2903180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1">
+        <v>23736100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1">
       <c r="A54" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <v>202892160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1">
+        <v>2903180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1">
       <c r="A55" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="6">
-        <v>4196800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1">
+        <f>202890.3*1000</f>
+        <v>202890300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="6">
+        <v>4196800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1">
+      <c r="A57" s="3">
+        <v>72</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="2" customFormat="1">
-      <c r="A57" s="3">
+    <row r="58" spans="1:6" s="2" customFormat="1">
+      <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="6">
-        <v>78123.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="2" customFormat="1">
-      <c r="A58" s="3">
-        <v>56</v>
-      </c>
       <c r="B58" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="6">
-        <v>26411340.960000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1">
+        <v>78123.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="6">
-        <v>2284369.5699999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="2" customFormat="1">
+        <v>26411340.960000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1">
       <c r="A60" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="6">
-        <v>110138598.78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1">
+        <v>2284369.5699999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1">
       <c r="A61" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="6">
+        <v>110138598.78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="6">
         <v>11245600</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="2" customFormat="1">
-      <c r="A62" s="3">
+    <row r="63" spans="1:6" s="2" customFormat="1">
+      <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="6">
-        <v>89953.83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1">
-      <c r="A63" s="3">
-        <v>61</v>
-      </c>
       <c r="B63" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="6">
-        <v>27856735.899999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="2" customFormat="1">
+        <v>89953.83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E64" s="6">
-        <v>2323526.79</v>
+        <v>27856735.899999999</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="6">
-        <v>127326985.68000001</v>
+        <v>2323526.79</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="6">
-        <v>18486100</v>
+        <v>127326985.68000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1">
       <c r="A67" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="6">
-        <v>3173023.34</v>
+        <v>18486100</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1">
       <c r="A68" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E68" s="6">
-        <v>23946490</v>
+        <v>3173023.34</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1">
       <c r="A69" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="6">
-        <v>3221560</v>
+        <v>23946490</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1">
       <c r="A70" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="6">
-        <v>64135980</v>
+        <v>3221560</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1">
       <c r="A71" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="6">
-        <v>2129000</v>
+        <v>64135980</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
       <c r="A72" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="6">
-        <v>0</v>
+        <v>2129000</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1">
       <c r="A73" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="6">
         <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:E74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F49B8-B934-F54A-81DB-659065BCB2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A42E9-F31D-F54D-8B15-0E3AD5743B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="30">
   <si>
     <t>№ 
 п/п</t>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>НО № 10</t>
-  </si>
-  <si>
-    <t>Текущая дата: 14.10.2022</t>
   </si>
   <si>
     <t>Прочие</t>
@@ -133,20 +130,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,31 +201,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -537,781 +523,793 @@
     <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="30">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="3">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6">
+        <v>281455.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="6">
-        <v>281455.2</v>
+        <v>26598120.579999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="6">
-        <v>26598120.579999998</v>
+        <v>4690583.24</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="6">
-        <v>4690583.24</v>
+        <v>118679020.95</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="6">
-        <v>118679020.95</v>
+        <v>16315000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6">
-        <v>16315000</v>
+        <v>4590399.99</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="3">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6">
-        <v>4590399.99</v>
+        <v>65835899.999999993</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="6">
-        <v>65835899.999999993</v>
+        <v>3106300</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="6">
-        <v>3106300</v>
+        <f>114436.5*1000</f>
+        <v>114436500</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="6">
-        <f>114436.5*1000</f>
-        <v>114436500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <f>5089.46*1000</f>
+        <v>5089460</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="6">
-        <f>5089.46*1000</f>
-        <v>5089460</v>
+        <f>1334120.4*1000</f>
+        <v>1334120400</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" s="6">
-        <f>1334120.4*1000</f>
-        <v>1334120400</v>
-      </c>
+        <v>596798.07999999996</v>
+      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6">
-        <v>596798.07999999996</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>35130055.25</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6">
-        <v>35130055.25</v>
+        <v>3243719.03</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1">
       <c r="A17" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>3243719.03</v>
+        <v>102878353.05</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1">
       <c r="A18" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="6">
-        <v>102878353.05</v>
+        <v>5046280</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1">
       <c r="A19" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="6">
-        <v>5046280</v>
+        <v>21780685.710000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1">
       <c r="A20" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6">
-        <v>21780685.710000001</v>
+        <v>24456972.73</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1">
       <c r="A21" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="6">
-        <v>24456972.73</v>
+        <v>2533532.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1">
       <c r="A22" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="6">
-        <v>2533532.42</v>
+        <v>116723532.17</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1">
       <c r="A23" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="6">
-        <v>116723532.17</v>
+        <v>40161000</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="6">
-        <v>40161000</v>
+        <v>607712.51</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="6">
-        <v>607712.51</v>
+        <v>626930.4</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="6">
-        <v>626930.4</v>
+        <v>24326256.280000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="6">
-        <v>24326256.280000001</v>
+        <v>2736806.54</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="6">
-        <v>2736806.54</v>
+        <v>117459252.19</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="6">
-        <v>117459252.19</v>
+        <v>45354000</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="6">
-        <v>45354000</v>
+        <v>4573800.74</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31" s="6">
-        <v>4573800.74</v>
+        <v>342711.34</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1">
       <c r="A32" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="6">
-        <v>342711.34</v>
+        <v>41326011.490000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1">
       <c r="A33" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="6">
-        <v>41326011.490000002</v>
+        <v>1632700.19</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1">
       <c r="A34" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="6">
-        <v>1632700.19</v>
+        <v>117468674.95</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1">
       <c r="A35" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="6">
-        <v>117468674.95</v>
+        <v>24544000</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="6">
-        <v>24544000</v>
+        <v>21541131.550000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E37" s="6">
-        <v>21541131.550000001</v>
+        <v>52894400</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="6">
-        <v>52894400</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="6">
-        <v>1590600</v>
+        <f>135527.7*1000</f>
+        <v>135527700</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="6">
-        <f>135527.7*1000</f>
-        <v>135527700</v>
+        <v>40046000</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="6">
-        <v>40046000</v>
+        <f>25874.5*1000</f>
+        <v>25874500</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="3">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="6">
-        <f>25874.5*1000</f>
-        <v>25874500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <v>110234900</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="6">
-        <v>110234900</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="6">
-        <v>1590600</v>
+        <f>178184.5*1000</f>
+        <v>178184500</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="3">
+        <v>10</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="6">
-        <f>178184.5*1000</f>
-        <v>178184500</v>
+        <v>214000000</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
@@ -1319,483 +1317,466 @@
         <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="6">
-        <v>214000000</v>
+        <f>115.2*1000</f>
+        <v>115200</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="6">
-        <f>115.2*1000</f>
-        <v>115200</v>
+        <f>42103.2*1000</f>
+        <v>42103200</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1">
       <c r="A49" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="6">
-        <f>42103.2*1000</f>
-        <v>42103200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1">
       <c r="A50" s="3">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
-      </c>
+        <v>2160010</v>
+      </c>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1">
       <c r="A51" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="6">
-        <v>2160010</v>
-      </c>
-      <c r="F51" s="8"/>
+        <v>1190370</v>
+      </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1">
       <c r="A52" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="6">
-        <v>1190370</v>
+        <v>23736100</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1">
       <c r="A53" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="6">
-        <v>23736100</v>
+        <v>2903180</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1">
       <c r="A54" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <v>2903180</v>
+        <f>202890.3*1000</f>
+        <v>202890300</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1">
       <c r="A55" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="6">
-        <f>202890.3*1000</f>
-        <v>202890300</v>
+        <v>4196800</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="6">
-        <v>4196800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1">
       <c r="A57" s="3">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E57" s="6">
-        <v>0</v>
+        <v>78123.5</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1">
       <c r="A58" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="6">
-        <v>78123.5</v>
+        <v>26411340.960000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="6">
-        <v>26411340.960000001</v>
+        <v>2284369.5699999998</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1">
       <c r="A60" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="6">
-        <v>2284369.5699999998</v>
+        <v>110138598.78</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1">
       <c r="A61" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="6">
-        <v>110138598.78</v>
+        <v>11245600</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1">
       <c r="A62" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E62" s="6">
-        <v>11245600</v>
+        <v>89953.83</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1">
       <c r="A63" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="6">
-        <v>89953.83</v>
+        <v>27856735.899999999</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E64" s="6">
-        <v>27856735.899999999</v>
+        <v>2323526.79</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="6">
-        <v>2323526.79</v>
+        <v>127326985.68000001</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="6">
-        <v>127326985.68000001</v>
+        <v>18486100</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1">
       <c r="A67" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="6">
-        <v>18486100</v>
+        <v>3173023.34</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1">
       <c r="A68" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E68" s="6">
-        <v>3173023.34</v>
+        <v>23946490</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1">
       <c r="A69" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="6">
-        <v>23946490</v>
+        <v>3221560</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1">
       <c r="A70" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="6">
-        <v>3221560</v>
+        <v>64135980</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1">
       <c r="A71" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="6">
-        <v>64135980</v>
+        <v>2129000</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
       <c r="A72" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="6">
-        <v>2129000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1">
       <c r="A73" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="2" customFormat="1">
-      <c r="A74" s="3">
-        <v>71</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="6">
         <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A42E9-F31D-F54D-8B15-0E3AD5743B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713BE00B-8DFC-3A47-8766-60952B79A6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30620" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,9 +221,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -507,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -519,11 +516,10 @@
     <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
+    <col min="6" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>43</v>
       </c>
@@ -557,7 +553,7 @@
         <v>281455.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
+    <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="3">
         <v>44</v>
       </c>
@@ -574,7 +570,7 @@
         <v>26598120.579999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
+    <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="3">
         <v>45</v>
       </c>
@@ -591,7 +587,7 @@
         <v>4690583.24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
+    <row r="5" spans="1:5" s="2" customFormat="1">
       <c r="A5" s="3">
         <v>46</v>
       </c>
@@ -608,7 +604,7 @@
         <v>118679020.95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
+    <row r="6" spans="1:5" s="2" customFormat="1">
       <c r="A6" s="3">
         <v>47</v>
       </c>
@@ -625,7 +621,7 @@
         <v>16315000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
+    <row r="7" spans="1:5" s="2" customFormat="1">
       <c r="A7" s="3">
         <v>48</v>
       </c>
@@ -642,7 +638,7 @@
         <v>4590399.99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
+    <row r="8" spans="1:5" s="2" customFormat="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -659,7 +655,7 @@
         <v>65835899.999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
+    <row r="9" spans="1:5" s="2" customFormat="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -676,7 +672,7 @@
         <v>3106300</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    <row r="10" spans="1:5" s="2" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -690,11 +686,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="6">
-        <f>114436.5*1000</f>
         <v>114436500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
+    <row r="11" spans="1:5" s="2" customFormat="1">
       <c r="A11" s="3">
         <v>12</v>
       </c>
@@ -711,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+    <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -725,11 +720,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="6">
-        <f>5089.46*1000</f>
         <v>5089460</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
+    <row r="13" spans="1:5" s="2" customFormat="1">
       <c r="A13" s="3">
         <v>18</v>
       </c>
@@ -743,11 +737,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="6">
-        <f>1334120.4*1000</f>
         <v>1334120400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
+    <row r="14" spans="1:5" s="2" customFormat="1">
       <c r="A14" s="3">
         <v>24</v>
       </c>
@@ -763,9 +756,8 @@
       <c r="E14" s="6">
         <v>596798.07999999996</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1">
       <c r="A15" s="3">
         <v>25</v>
       </c>
@@ -782,7 +774,7 @@
         <v>35130055.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
+    <row r="16" spans="1:5" s="2" customFormat="1">
       <c r="A16" s="3">
         <v>26</v>
       </c>
@@ -1187,7 +1179,6 @@
         <v>12</v>
       </c>
       <c r="E39" s="6">
-        <f>135527.7*1000</f>
         <v>135527700</v>
       </c>
     </row>
@@ -1222,7 +1213,6 @@
         <v>12</v>
       </c>
       <c r="E41" s="6">
-        <f>25874.5*1000</f>
         <v>25874500</v>
       </c>
     </row>
@@ -1291,7 +1281,6 @@
         <v>11</v>
       </c>
       <c r="E45" s="6">
-        <f>178184.5*1000</f>
         <v>178184500</v>
       </c>
     </row>
@@ -1326,7 +1315,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="6">
-        <f>115.2*1000</f>
         <v>115200</v>
       </c>
     </row>
@@ -1344,11 +1332,10 @@
         <v>11</v>
       </c>
       <c r="E48" s="6">
-        <f>42103.2*1000</f>
         <v>42103200</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1">
+    <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="3">
         <v>16</v>
       </c>
@@ -1365,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1">
+    <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" s="3">
         <v>66</v>
       </c>
@@ -1381,9 +1368,8 @@
       <c r="E50" s="6">
         <v>2160010</v>
       </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1">
       <c r="A51" s="3">
         <v>67</v>
       </c>
@@ -1400,7 +1386,7 @@
         <v>1190370</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1">
+    <row r="52" spans="1:5" s="2" customFormat="1">
       <c r="A52" s="3">
         <v>68</v>
       </c>
@@ -1417,7 +1403,7 @@
         <v>23736100</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1">
+    <row r="53" spans="1:5" s="2" customFormat="1">
       <c r="A53" s="3">
         <v>69</v>
       </c>
@@ -1434,7 +1420,7 @@
         <v>2903180</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1">
+    <row r="54" spans="1:5" s="2" customFormat="1">
       <c r="A54" s="3">
         <v>70</v>
       </c>
@@ -1448,11 +1434,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <f>202890.3*1000</f>
         <v>202890300</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1">
+    <row r="55" spans="1:5" s="2" customFormat="1">
       <c r="A55" s="3">
         <v>71</v>
       </c>
@@ -1469,7 +1454,7 @@
         <v>4196800</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1">
+    <row r="56" spans="1:5" s="2" customFormat="1">
       <c r="A56" s="3">
         <v>72</v>
       </c>
@@ -1486,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1">
+    <row r="57" spans="1:5" s="2" customFormat="1">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -1503,7 +1488,7 @@
         <v>78123.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1">
+    <row r="58" spans="1:5" s="2" customFormat="1">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -1520,7 +1505,7 @@
         <v>26411340.960000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1">
+    <row r="59" spans="1:5" s="2" customFormat="1">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -1537,7 +1522,7 @@
         <v>2284369.5699999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1">
+    <row r="60" spans="1:5" s="2" customFormat="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -1554,7 +1539,7 @@
         <v>110138598.78</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1">
+    <row r="61" spans="1:5" s="2" customFormat="1">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -1571,7 +1556,7 @@
         <v>11245600</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1">
+    <row r="62" spans="1:5" s="2" customFormat="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -1588,7 +1573,7 @@
         <v>89953.83</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1">
+    <row r="63" spans="1:5" s="2" customFormat="1">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -1605,7 +1590,7 @@
         <v>27856735.899999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1">
+    <row r="64" spans="1:5" s="2" customFormat="1">
       <c r="A64" s="3">
         <v>62</v>
       </c>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713BE00B-8DFC-3A47-8766-60952B79A6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A57873-4B11-8E43-B5EE-D1E383581906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30620" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$76</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="autoNoTable"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="30">
   <si>
     <t>№ 
 п/п</t>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,6 +221,12 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -504,19 +510,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="4"/>
+    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="30">
@@ -540,10 +548,10 @@
       <c r="A2" s="3">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -686,6 +694,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="6">
+        <f>114436.5*1000</f>
         <v>114436500</v>
       </c>
     </row>
@@ -720,6 +729,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="6">
+        <f>5089.46*1000</f>
         <v>5089460</v>
       </c>
     </row>
@@ -737,112 +747,114 @@
         <v>13</v>
       </c>
       <c r="E13" s="6">
+        <f>1334120.4*1000</f>
         <v>1334120400</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1">
       <c r="A14" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6">
-        <v>596798.07999999996</v>
+        <v>35130055.25</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1">
       <c r="A15" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6">
-        <v>35130055.25</v>
+        <v>3243719.03</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1">
       <c r="A16" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6">
-        <v>3243719.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1">
+        <v>102878353.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>102878353.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1">
+        <v>5046280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="6">
-        <v>5046280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
+        <v>21780685.710000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
       <c r="A19" s="3">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="6">
-        <v>21780685.710000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1">
+        <v>587785.6</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
       <c r="A20" s="3">
         <v>31</v>
       </c>
@@ -859,7 +871,7 @@
         <v>24456972.73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1">
+    <row r="21" spans="1:6" s="2" customFormat="1">
       <c r="A21" s="3">
         <v>32</v>
       </c>
@@ -876,7 +888,7 @@
         <v>2533532.42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1">
+    <row r="22" spans="1:6" s="2" customFormat="1">
       <c r="A22" s="3">
         <v>33</v>
       </c>
@@ -893,7 +905,7 @@
         <v>116723532.17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1">
+    <row r="23" spans="1:6" s="2" customFormat="1">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -910,7 +922,7 @@
         <v>40161000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
+    <row r="24" spans="1:6" s="2" customFormat="1">
       <c r="A24" s="3">
         <v>35</v>
       </c>
@@ -927,378 +939,380 @@
         <v>607712.51</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1">
+    <row r="25" spans="1:6" s="2" customFormat="1">
       <c r="A25" s="3">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="6">
+        <v>9012.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1">
+      <c r="A26" s="3">
         <v>37</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="6">
-        <v>626930.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
-      <c r="A26" s="3">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="6">
-        <v>24326256.280000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1">
+        <v>626930.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1">
       <c r="A27" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="6">
-        <v>2736806.54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1">
+        <v>24326256.280000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="6">
-        <v>117459252.19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1">
+        <v>2736806.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1">
       <c r="A29" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="6">
-        <v>45354000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1">
+        <v>117459252.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1">
       <c r="A30" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="6">
+        <v>45354000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1">
+      <c r="A31" s="3">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6">
         <v>4573800.74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1">
-      <c r="A31" s="3">
+    <row r="32" spans="1:6" s="2" customFormat="1">
+      <c r="A32" s="3">
         <v>49</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="6">
-        <v>342711.34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1">
-      <c r="A32" s="3">
-        <v>50</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>23</v>
+      <c r="B32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="6">
-        <v>41326011.490000002</v>
+        <v>342711.34</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1">
       <c r="A33" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="6">
-        <v>1632700.19</v>
+        <v>41326011.490000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1">
       <c r="A34" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="6">
-        <v>117468674.95</v>
+        <v>1632700.19</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1">
       <c r="A35" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="6">
-        <v>24544000</v>
+        <v>117468674.95</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="6">
-        <v>21541131.550000001</v>
+        <v>24544000</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E37" s="6">
-        <v>52894400</v>
+        <v>21541131.550000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="6">
-        <v>1590600</v>
+        <v>52894400</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="6">
-        <v>135527700</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="6">
-        <v>40046000</v>
+        <f>135527.7*1000</f>
+        <v>135527700</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="6">
-        <v>25874500</v>
+        <v>40046000</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <f>25874.5*1000</f>
+        <v>25874500</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" s="6">
-        <v>110234900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="6">
-        <v>1590600</v>
+        <v>110234900</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="6">
-        <v>178184500</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="6">
-        <v>214000000</v>
+        <v>178184500</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
@@ -1306,462 +1320,502 @@
         <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="6">
-        <v>115200</v>
+        <v>214000000</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="3">
-        <v>13</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="6">
-        <v>42103200</v>
+        <v>272840</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="6">
-        <v>0</v>
+        <v>42103200</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" s="3">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" s="6">
-        <v>2160010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1">
       <c r="A51" s="3">
-        <v>67</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>28</v>
+        <v>66</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="6">
-        <v>1190370</v>
+        <v>1682070</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1">
       <c r="A52" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="6">
-        <v>23736100</v>
+        <v>1190370</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1">
       <c r="A53" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="6">
-        <v>2903180</v>
+        <v>23736100</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1">
       <c r="A54" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <v>202890300</v>
+        <v>2903180</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1">
       <c r="A55" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="6">
-        <v>4196800</v>
+        <f>202890.3*1000</f>
+        <v>202890300</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="6">
-        <v>0</v>
+        <v>4196800</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1">
       <c r="A57" s="3">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E57" s="6">
-        <v>78123.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1">
       <c r="A58" s="3">
-        <v>56</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>23</v>
+        <v>73</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E58" s="6">
-        <v>26411340.960000001</v>
+        <v>477940</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>57</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E59" s="6">
-        <v>2284369.5699999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1">
       <c r="A60" s="3">
-        <v>58</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="6">
-        <v>110138598.78</v>
+        <v>78123.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="2" customFormat="1">
       <c r="A61" s="3">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="6">
-        <v>11245600</v>
+        <v>26411340.960000001</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1">
       <c r="A62" s="3">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" s="6">
-        <v>89953.83</v>
+        <v>2284369.5699999998</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="2" customFormat="1">
       <c r="A63" s="3">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" s="6">
-        <v>27856735.899999999</v>
+        <v>110138598.78</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" s="6">
-        <v>2323526.79</v>
+        <v>11245600</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>63</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="6">
-        <v>127326985.68000001</v>
+        <v>89953.83</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="6">
-        <v>18486100</v>
+        <v>27856735.899999999</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1">
       <c r="A67" s="3">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="6">
-        <v>3173023.34</v>
+        <v>2323526.79</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1">
       <c r="A68" s="3">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E68" s="6">
-        <v>23946490</v>
+        <v>127326985.68000001</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1">
       <c r="A69" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E69" s="6">
-        <v>3221560</v>
+        <v>18486100</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1">
       <c r="A70" s="3">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E70" s="6">
-        <v>64135980</v>
+        <v>3173023.34</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1">
-      <c r="A71" s="3">
-        <v>69</v>
-      </c>
+      <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="6">
-        <v>2129000</v>
+        <v>23946490</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
-      <c r="A72" s="3">
-        <v>70</v>
-      </c>
+      <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="6">
-        <v>0</v>
+        <v>3221560</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1">
-      <c r="A73" s="3">
-        <v>71</v>
-      </c>
+      <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="6">
+        <v>64135980</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2129000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="2" customFormat="1">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1">
+      <c r="A76" s="3"/>
+      <c r="B76" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="6">
         <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A57873-4B11-8E43-B5EE-D1E383581906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35E694A-7820-FB47-814E-0CBF4B4FD7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -694,7 +694,6 @@
         <v>13</v>
       </c>
       <c r="E10" s="6">
-        <f>114436.5*1000</f>
         <v>114436500</v>
       </c>
     </row>
@@ -729,7 +728,6 @@
         <v>13</v>
       </c>
       <c r="E12" s="6">
-        <f>5089.46*1000</f>
         <v>5089460</v>
       </c>
     </row>
@@ -747,7 +745,6 @@
         <v>13</v>
       </c>
       <c r="E13" s="6">
-        <f>1334120.4*1000</f>
         <v>1334120400</v>
       </c>
     </row>
@@ -1208,7 +1205,6 @@
         <v>12</v>
       </c>
       <c r="E40" s="6">
-        <f>135527.7*1000</f>
         <v>135527700</v>
       </c>
     </row>
@@ -1243,7 +1239,6 @@
         <v>12</v>
       </c>
       <c r="E42" s="6">
-        <f>25874.5*1000</f>
         <v>25874500</v>
       </c>
     </row>
@@ -1465,7 +1460,6 @@
         <v>10</v>
       </c>
       <c r="E55" s="6">
-        <f>202890.3*1000</f>
         <v>202890300</v>
       </c>
     </row>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35E694A-7820-FB47-814E-0CBF4B4FD7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE631118-2029-FF4C-9AE4-D805B54F3F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$73</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="30">
   <si>
     <t>№ 
 п/п</t>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,12 +221,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -510,20 +504,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="67.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
@@ -548,10 +542,10 @@
       <c r="A2" s="3">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -677,7 +671,8 @@
         <v>13</v>
       </c>
       <c r="E9" s="6">
-        <v>3106300</v>
+        <f>3330.6*1000</f>
+        <v>3330600</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1">
@@ -694,6 +689,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="6">
+        <f>114436.5*1000</f>
         <v>114436500</v>
       </c>
     </row>
@@ -711,7 +707,8 @@
         <v>13</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <f>254046*1000</f>
+        <v>254046000</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1">
@@ -728,6 +725,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="6">
+        <f>5089.46*1000</f>
         <v>5089460</v>
       </c>
     </row>
@@ -745,113 +743,113 @@
         <v>13</v>
       </c>
       <c r="E13" s="6">
+        <f>1334120.4*1000</f>
         <v>1334120400</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1">
       <c r="A14" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6">
-        <v>35130055.25</v>
+        <v>596798.08000000007</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1">
       <c r="A15" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6">
-        <v>3243719.03</v>
+        <v>35130055.25</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1">
       <c r="A16" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6">
-        <v>102878353.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+        <v>3243719.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1">
       <c r="A17" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>5046280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
+        <v>102878353.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1">
       <c r="A18" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="6">
+        <v>5046280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1">
+      <c r="A19" s="3">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6">
         <v>21780685.710000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
-      <c r="A19" s="3">
-        <v>30</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="6">
-        <v>587785.6</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
+    <row r="20" spans="1:5" s="2" customFormat="1">
       <c r="A20" s="3">
         <v>31</v>
       </c>
@@ -868,7 +866,7 @@
         <v>24456972.73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
+    <row r="21" spans="1:5" s="2" customFormat="1">
       <c r="A21" s="3">
         <v>32</v>
       </c>
@@ -885,7 +883,7 @@
         <v>2533532.42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
+    <row r="22" spans="1:5" s="2" customFormat="1">
       <c r="A22" s="3">
         <v>33</v>
       </c>
@@ -902,7 +900,7 @@
         <v>116723532.17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1">
+    <row r="23" spans="1:5" s="2" customFormat="1">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -919,7 +917,7 @@
         <v>40161000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1">
+    <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24" s="3">
         <v>35</v>
       </c>
@@ -936,880 +934,835 @@
         <v>607712.51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1">
+    <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="3">
-        <v>36</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="6">
-        <v>9012.48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
+        <v>626930.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="3">
-        <v>37</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="6">
-        <v>626930.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
+        <v>24326256.280000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="6">
-        <v>24326256.280000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+        <v>2736806.54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="6">
-        <v>2736806.54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
+        <v>117459252.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="6">
-        <v>117459252.19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
+        <v>45354000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="6">
-        <v>45354000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
+        <v>4573800.74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31" s="6">
-        <v>4573800.74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
+        <v>342711.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1">
       <c r="A32" s="3">
-        <v>49</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="6">
-        <v>342711.34</v>
+        <v>41326011.490000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1">
       <c r="A33" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="6">
-        <v>41326011.490000002</v>
+        <v>1632700.19</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1">
       <c r="A34" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="6">
-        <v>1632700.19</v>
+        <v>117468674.95</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1">
       <c r="A35" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="6">
-        <v>117468674.95</v>
+        <v>24544000</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="6">
-        <v>24544000</v>
+        <v>21541131.550000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E37" s="6">
-        <v>21541131.550000001</v>
+        <v>52894400</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="6">
-        <v>52894400</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="6">
-        <v>1590600</v>
+        <f>135527.7*1000</f>
+        <v>135527700</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="6">
-        <v>135527700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="6">
-        <v>40046000</v>
+        <f>25874.5*1000</f>
+        <v>25874500</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="3">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="6">
-        <v>25874500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <f>36549.3*1000</f>
+        <v>36549300</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="6">
-        <v>110234900</v>
+        <f>2803.1*1000</f>
+        <v>2803100</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="6">
-        <v>1590600</v>
+        <f>178184.5*1000</f>
+        <v>178184500</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="3">
+        <v>10</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="6">
-        <v>178184500</v>
-      </c>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
       <c r="A47" s="3">
         <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="6">
-        <v>214000000</v>
+        <f>272.8*1000</f>
+        <v>272800</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="3">
-        <v>10</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="6">
-        <v>272840</v>
+        <f>42103.2*1000</f>
+        <v>42103200</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="6">
-        <v>42103200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" s="3">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>2160010</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1">
       <c r="A51" s="3">
-        <v>66</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="6">
-        <v>1682070</v>
+        <v>1190370</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1">
       <c r="A52" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="6">
-        <v>1190370</v>
+        <v>23736100</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1">
       <c r="A53" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="6">
-        <v>23736100</v>
+        <v>2903180</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1">
       <c r="A54" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <v>2903180</v>
+        <f>202890.3*1000</f>
+        <v>202890300</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1">
       <c r="A55" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="6">
-        <v>202890300</v>
+        <v>4196800</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="6">
-        <v>4196800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1">
       <c r="A57" s="3">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E57" s="6">
-        <v>0</v>
+        <v>78123.5</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1">
       <c r="A58" s="3">
-        <v>73</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E58" s="6">
-        <v>477940</v>
+        <v>26411340.960000001</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>74</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E59" s="6">
-        <v>0</v>
+        <v>2284369.5699999998</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1">
       <c r="A60" s="3">
-        <v>55</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="6">
-        <v>78123.5</v>
+        <v>110138598.78</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="2" customFormat="1">
       <c r="A61" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="6">
-        <v>26411340.960000001</v>
+        <v>11245600</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1">
       <c r="A62" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E62" s="6">
-        <v>2284369.5699999998</v>
+        <v>89953.83</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="2" customFormat="1">
       <c r="A63" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E63" s="6">
-        <v>110138598.78</v>
+        <v>27856735.899999999</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E64" s="6">
-        <v>11245600</v>
+        <v>2323526.79</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="6">
-        <v>89953.83</v>
+        <v>127326985.68000001</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="6">
-        <v>27856735.899999999</v>
+        <v>18486100</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1">
       <c r="A67" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="6">
-        <v>2323526.79</v>
+        <v>3173023.34</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1">
-      <c r="A68" s="3">
-        <v>63</v>
-      </c>
+      <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="6">
+        <v>23946490</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="6">
+        <v>3221560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="6">
-        <v>127326985.68000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="2" customFormat="1">
-      <c r="A69" s="3">
-        <v>64</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="6">
-        <v>18486100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="2" customFormat="1">
-      <c r="A70" s="3">
-        <v>65</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E70" s="6">
-        <v>3173023.34</v>
+        <v>64135980</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="6">
-        <v>23946490</v>
+        <v>2129000</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="6">
-        <v>3221560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="6">
-        <v>64135980</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="2" customFormat="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="6">
-        <v>2129000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="2" customFormat="1">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="2" customFormat="1">
-      <c r="A76" s="3"/>
-      <c r="B76" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="6">
         <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE631118-2029-FF4C-9AE4-D805B54F3F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE1C01-32DB-6D4E-977F-75D60A696977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -671,7 +671,6 @@
         <v>13</v>
       </c>
       <c r="E9" s="6">
-        <f>3330.6*1000</f>
         <v>3330600</v>
       </c>
     </row>
@@ -689,7 +688,6 @@
         <v>13</v>
       </c>
       <c r="E10" s="6">
-        <f>114436.5*1000</f>
         <v>114436500</v>
       </c>
     </row>
@@ -707,7 +705,6 @@
         <v>13</v>
       </c>
       <c r="E11" s="6">
-        <f>254046*1000</f>
         <v>254046000</v>
       </c>
     </row>
@@ -725,7 +722,6 @@
         <v>13</v>
       </c>
       <c r="E12" s="6">
-        <f>5089.46*1000</f>
         <v>5089460</v>
       </c>
     </row>
@@ -743,7 +739,6 @@
         <v>13</v>
       </c>
       <c r="E13" s="6">
-        <f>1334120.4*1000</f>
         <v>1334120400</v>
       </c>
     </row>
@@ -1186,7 +1181,6 @@
         <v>12</v>
       </c>
       <c r="E39" s="6">
-        <f>135527.7*1000</f>
         <v>135527700</v>
       </c>
     </row>
@@ -1221,7 +1215,6 @@
         <v>12</v>
       </c>
       <c r="E41" s="6">
-        <f>25874.5*1000</f>
         <v>25874500</v>
       </c>
     </row>
@@ -1256,7 +1249,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="6">
-        <f>36549.3*1000</f>
         <v>36549300</v>
       </c>
     </row>
@@ -1274,7 +1266,6 @@
         <v>11</v>
       </c>
       <c r="E44" s="6">
-        <f>2803.1*1000</f>
         <v>2803100</v>
       </c>
     </row>
@@ -1292,7 +1283,6 @@
         <v>11</v>
       </c>
       <c r="E45" s="6">
-        <f>178184.5*1000</f>
         <v>178184500</v>
       </c>
     </row>
@@ -1325,7 +1315,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="6">
-        <f>272.8*1000</f>
         <v>272800</v>
       </c>
     </row>
@@ -1343,7 +1332,6 @@
         <v>11</v>
       </c>
       <c r="E48" s="6">
-        <f>42103.2*1000</f>
         <v>42103200</v>
       </c>
     </row>
@@ -1446,7 +1434,6 @@
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <f>202890.3*1000</f>
         <v>202890300</v>
       </c>
     </row>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE1C01-32DB-6D4E-977F-75D60A696977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C679CF05-E063-2843-817E-BE1B0C0D2FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1299,7 +1299,9 @@
       <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
       <c r="A47" s="3">

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8D7219-B1B5-884A-BA99-9DE1852669D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9E8E2-CB0C-9948-9A5D-7732372A5B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5020" yWindow="580" windowWidth="30800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$78</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="40">
   <si>
     <t>№ 
 п/п</t>
@@ -63,12 +63,6 @@
     <t>Научное отделение № 9 (НО № 9)</t>
   </si>
   <si>
-    <t>Научное отделение сопровождения НИОКР и информационных систем (НО СНИОКР и ИС)</t>
-  </si>
-  <si>
-    <t>Отдел капитального строительства (ОКС)</t>
-  </si>
-  <si>
     <t>Август</t>
   </si>
   <si>
@@ -129,12 +123,6 @@
     <t>НО № 10</t>
   </si>
   <si>
-    <t>НО СНИОКР и ИС</t>
-  </si>
-  <si>
-    <t>ОКС</t>
-  </si>
-  <si>
     <t>Код</t>
   </si>
   <si>
@@ -162,10 +150,10 @@
     <t>00-000051</t>
   </si>
   <si>
-    <t>Метрологический отдел</t>
-  </si>
-  <si>
     <t>00-000002</t>
+  </si>
+  <si>
+    <t>Прочие</t>
   </si>
 </sst>
 </file>
@@ -546,11 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -570,10 +557,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -582,27 +569,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6">
         <v>281455.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="3">
         <v>44</v>
       </c>
@@ -610,19 +597,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6">
         <v>26601660</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="3">
         <v>45</v>
       </c>
@@ -630,19 +617,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6">
         <v>4690580</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="3">
         <v>46</v>
       </c>
@@ -650,19 +637,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6">
         <v>118679020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="3">
         <v>47</v>
       </c>
@@ -670,19 +657,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6">
         <v>16315000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="3">
         <v>48</v>
       </c>
@@ -690,19 +677,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6">
         <v>4590400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -710,19 +697,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6">
         <v>65835899.999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -730,19 +717,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6">
         <v>3330600</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -750,19 +737,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6">
         <v>114436500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="3">
         <v>12</v>
       </c>
@@ -770,19 +757,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6">
         <v>254046000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -790,59 +777,59 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="6">
         <v>5089460</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="3">
         <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="6">
         <v>1334120400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="3">
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" s="6">
         <v>348730</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="3">
         <v>25</v>
       </c>
@@ -850,19 +837,19 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" s="6">
         <v>35126520</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="3">
         <v>26</v>
       </c>
@@ -870,19 +857,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="6">
         <v>3243720</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="3">
         <v>27</v>
       </c>
@@ -890,19 +877,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F17" s="6">
         <v>102878350</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="3">
         <v>28</v>
       </c>
@@ -910,19 +897,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="6">
         <v>5046280</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="19" spans="1:6" s="2" customFormat="1">
       <c r="A19" s="3">
         <v>29</v>
       </c>
@@ -930,39 +917,39 @@
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="6">
         <v>21780690</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="20" spans="1:6" s="2" customFormat="1">
       <c r="A20" s="3">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="6">
         <v>239085.6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="21" spans="1:6" s="2" customFormat="1">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -970,19 +957,19 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="6">
         <v>24456972.73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="22" spans="1:6" s="2" customFormat="1">
       <c r="A22" s="3">
         <v>32</v>
       </c>
@@ -990,19 +977,19 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22" s="6">
         <v>2533532.42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="23" spans="1:6" s="2" customFormat="1">
       <c r="A23" s="3">
         <v>33</v>
       </c>
@@ -1010,19 +997,19 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="6">
         <v>116723532.17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="24" spans="1:6" s="2" customFormat="1">
       <c r="A24" s="3">
         <v>34</v>
       </c>
@@ -1030,19 +1017,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" s="6">
         <v>40161000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="25" spans="1:6" s="2" customFormat="1">
       <c r="A25" s="3">
         <v>35</v>
       </c>
@@ -1050,13 +1037,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" s="6">
         <v>607712.51</v>
@@ -1067,42 +1054,42 @@
         <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="6">
         <v>9012.48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="27" spans="1:6" s="2" customFormat="1">
       <c r="A27" s="3">
         <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" s="6">
         <v>626930.4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="3">
         <v>38</v>
       </c>
@@ -1110,19 +1097,19 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="6">
         <v>24326256.280000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="29" spans="1:6" s="2" customFormat="1">
       <c r="A29" s="3">
         <v>39</v>
       </c>
@@ -1130,19 +1117,19 @@
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="6">
         <v>2736806.54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="30" spans="1:6" s="2" customFormat="1">
       <c r="A30" s="3">
         <v>40</v>
       </c>
@@ -1150,19 +1137,19 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F30" s="6">
         <v>117459252.19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="31" spans="1:6" s="2" customFormat="1">
       <c r="A31" s="3">
         <v>41</v>
       </c>
@@ -1170,19 +1157,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="6">
         <v>45354000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="32" spans="1:6" s="2" customFormat="1">
       <c r="A32" s="3">
         <v>42</v>
       </c>
@@ -1190,39 +1177,39 @@
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32" s="6">
         <v>4573800.74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="33" spans="1:6" s="2" customFormat="1">
       <c r="A33" s="3">
         <v>49</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="6">
         <v>342711.34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="34" spans="1:6" s="2" customFormat="1">
       <c r="A34" s="3">
         <v>50</v>
       </c>
@@ -1230,19 +1217,19 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34" s="6">
         <v>41326011.490000002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="35" spans="1:6" s="2" customFormat="1">
       <c r="A35" s="3">
         <v>51</v>
       </c>
@@ -1250,19 +1237,19 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F35" s="6">
         <v>1632700.19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="36" spans="1:6" s="2" customFormat="1">
       <c r="A36" s="3">
         <v>52</v>
       </c>
@@ -1270,19 +1257,19 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" s="6">
         <v>117468674.95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="37" spans="1:6" s="2" customFormat="1">
       <c r="A37" s="3">
         <v>53</v>
       </c>
@@ -1290,19 +1277,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37" s="6">
         <v>24544000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="38" spans="1:6" s="2" customFormat="1">
       <c r="A38" s="3">
         <v>54</v>
       </c>
@@ -1310,19 +1297,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F38" s="6">
         <v>21541131.550000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="39" spans="1:6" s="2" customFormat="1">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -1330,19 +1317,19 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F39" s="6">
         <v>52894400</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="40" spans="1:6" s="2" customFormat="1">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -1350,20 +1337,20 @@
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" s="6">
         <f>1883.4*1000</f>
         <v>1883400</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="41" spans="1:6" s="2" customFormat="1">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -1371,20 +1358,20 @@
         <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41" s="6">
         <f>132702.7*1000</f>
         <v>132702700.00000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="42" spans="1:6" s="2" customFormat="1">
       <c r="A42" s="3">
         <v>11</v>
       </c>
@@ -1392,19 +1379,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="43" spans="1:6" s="2" customFormat="1">
       <c r="A43" s="3">
         <v>14</v>
       </c>
@@ -1412,61 +1399,61 @@
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F43" s="6">
         <f>49391.4*1000</f>
         <v>49391400</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="44" spans="1:6" s="2" customFormat="1">
       <c r="A44" s="3">
         <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="45" spans="1:6" s="2" customFormat="1">
       <c r="A45" s="3">
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F45" s="6">
         <f>59.36*1000</f>
         <v>59360</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="46" spans="1:6" s="2" customFormat="1">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -1474,19 +1461,19 @@
         <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F46" s="6">
         <v>36615700</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="47" spans="1:6" s="2" customFormat="1">
       <c r="A47" s="3">
         <v>4</v>
       </c>
@@ -1494,20 +1481,20 @@
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F47" s="6">
         <f>2803.1*1000</f>
         <v>2803100</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="48" spans="1:6" s="2" customFormat="1">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -1515,20 +1502,20 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F48" s="6">
         <f>177413.9*1000</f>
         <v>177413900</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="49" spans="1:6" s="2" customFormat="1">
       <c r="A49" s="3">
         <v>10</v>
       </c>
@@ -1536,40 +1523,40 @@
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="50" spans="1:6" s="2" customFormat="1">
       <c r="A50" s="3">
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" s="6">
         <f>272.8*1000</f>
         <v>272800</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="51" spans="1:6" s="2" customFormat="1">
       <c r="A51" s="3">
         <v>13</v>
       </c>
@@ -1577,34 +1564,34 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F51" s="6">
         <f>18678.4*1000</f>
         <v>18678400</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="52" spans="1:6" s="2" customFormat="1">
       <c r="A52" s="3">
         <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F52" s="6">
         <v>0</v>
@@ -1615,42 +1602,42 @@
         <v>66</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F53" s="6">
         <v>1682070</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="54" spans="1:6" s="2" customFormat="1">
       <c r="A54" s="3">
         <v>67</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F54" s="6">
         <v>1190370</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="55" spans="1:6" s="2" customFormat="1">
       <c r="A55" s="3">
         <v>68</v>
       </c>
@@ -1658,19 +1645,19 @@
         <v>4</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" s="6">
         <v>23736100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="56" spans="1:6" s="2" customFormat="1">
       <c r="A56" s="3">
         <v>69</v>
       </c>
@@ -1678,19 +1665,19 @@
         <v>5</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F56" s="6">
         <v>2903180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="57" spans="1:6" s="2" customFormat="1">
       <c r="A57" s="3">
         <v>70</v>
       </c>
@@ -1698,19 +1685,19 @@
         <v>6</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F57" s="6">
         <v>202892160</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="58" spans="1:6" s="2" customFormat="1">
       <c r="A58" s="3">
         <v>71</v>
       </c>
@@ -1718,19 +1705,19 @@
         <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" s="6">
         <v>4196800</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="59" spans="1:6" s="2" customFormat="1">
       <c r="A59" s="3">
         <v>72</v>
       </c>
@@ -1738,33 +1725,33 @@
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="60" spans="1:6" s="2" customFormat="1">
       <c r="A60" s="3">
         <v>73</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60" s="6">
         <v>477940</v>
@@ -1775,42 +1762,42 @@
         <v>74</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="62" spans="1:6" s="2" customFormat="1">
       <c r="A62" s="3">
         <v>55</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F62" s="6">
         <v>78123.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="63" spans="1:6" s="2" customFormat="1">
       <c r="A63" s="3">
         <v>56</v>
       </c>
@@ -1818,19 +1805,19 @@
         <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F63" s="6">
         <v>26411340.960000001</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="64" spans="1:6" s="2" customFormat="1">
       <c r="A64" s="3">
         <v>57</v>
       </c>
@@ -1838,19 +1825,19 @@
         <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F64" s="6">
         <v>2284369.5699999998</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="65" spans="1:6" s="2" customFormat="1">
       <c r="A65" s="3">
         <v>58</v>
       </c>
@@ -1858,19 +1845,19 @@
         <v>6</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F65" s="6">
         <v>110138598.78</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="66" spans="1:6" s="2" customFormat="1">
       <c r="A66" s="3">
         <v>59</v>
       </c>
@@ -1878,39 +1865,39 @@
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F66" s="6">
         <v>11245600</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="67" spans="1:6" s="2" customFormat="1">
       <c r="A67" s="3">
         <v>60</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F67" s="6">
         <v>89953.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="68" spans="1:6" s="2" customFormat="1">
       <c r="A68" s="3">
         <v>61</v>
       </c>
@@ -1918,19 +1905,19 @@
         <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F68" s="6">
         <v>27856735.899999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="69" spans="1:6" s="2" customFormat="1">
       <c r="A69" s="3">
         <v>62</v>
       </c>
@@ -1938,19 +1925,19 @@
         <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F69" s="6">
         <v>2323526.79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="70" spans="1:6" s="2" customFormat="1">
       <c r="A70" s="3">
         <v>63</v>
       </c>
@@ -1958,19 +1945,19 @@
         <v>6</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F70" s="6">
         <v>127326985.68000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="71" spans="1:6" s="2" customFormat="1">
       <c r="A71" s="3">
         <v>64</v>
       </c>
@@ -1978,19 +1965,19 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F71" s="6">
         <v>18486100</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="72" spans="1:6" s="2" customFormat="1">
       <c r="A72" s="3">
         <v>65</v>
       </c>
@@ -1998,136 +1985,128 @@
         <v>8</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F72" s="6">
         <v>3173023.34</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="73" spans="1:6" s="2" customFormat="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F73" s="6">
         <v>23946490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="74" spans="1:6" s="2" customFormat="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F74" s="6">
         <v>3221560</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="75" spans="1:6" s="2" customFormat="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F75" s="6">
         <v>64135980</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="76" spans="1:6" s="2" customFormat="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F76" s="6">
         <v>2129000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="77" spans="1:6" s="2" customFormat="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F77" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="78" spans="1:6" s="2" customFormat="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F78" s="6">
         <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Метрологический отдел"/>
-        <filter val="НО СНИОКР и ИС"/>
-        <filter val="ОКС"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9E8E2-CB0C-9948-9A5D-7732372A5B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F694BD3C-229C-5241-BB72-63767E852B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="580" windowWidth="30800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="4920" windowWidth="30800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$78</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1998,7 +1998,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1">
-      <c r="A73" s="3"/>
+      <c r="A73" s="3">
+        <v>66</v>
+      </c>
       <c r="B73" s="3" t="s">
         <v>4</v>
       </c>
@@ -2016,7 +2018,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1">
-      <c r="A74" s="3"/>
+      <c r="A74" s="3">
+        <v>67</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2038,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1">
-      <c r="A75" s="3"/>
+      <c r="A75" s="3">
+        <v>68</v>
+      </c>
       <c r="B75" s="3" t="s">
         <v>6</v>
       </c>
@@ -2052,7 +2058,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1">
-      <c r="A76" s="3"/>
+      <c r="A76" s="3">
+        <v>69</v>
+      </c>
       <c r="B76" s="3" t="s">
         <v>7</v>
       </c>
@@ -2070,7 +2078,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1">
-      <c r="A77" s="3"/>
+      <c r="A77" s="3">
+        <v>70</v>
+      </c>
       <c r="B77" s="3" t="s">
         <v>8</v>
       </c>
@@ -2088,7 +2098,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1">
-      <c r="A78" s="3"/>
+      <c r="A78" s="3">
+        <v>71</v>
+      </c>
       <c r="B78" s="3" t="s">
         <v>39</v>
       </c>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F694BD3C-229C-5241-BB72-63767E852B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7BE534-19ED-804B-AA33-9D1959F9446F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="4920" windowWidth="30800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="39">
   <si>
     <t>№ 
 п/п</t>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>00-000001</t>
-  </si>
-  <si>
-    <t>00-000051</t>
   </si>
   <si>
     <t>00-000002</t>
@@ -534,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -546,7 +543,8 @@
     <col min="2" max="4" width="67.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
+    <col min="7" max="7" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
@@ -574,10 +572,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>36</v>
@@ -814,10 +812,10 @@
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>36</v>
@@ -934,10 +932,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>36</v>
@@ -946,7 +944,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="6">
-        <v>239085.6</v>
+        <v>248098.08000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1">
@@ -1051,468 +1049,468 @@
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1">
       <c r="A26" s="3">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F26" s="6">
-        <v>9012.48</v>
+        <v>626930.4</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1">
       <c r="A27" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="6">
-        <v>626930.4</v>
+        <v>24326256.280000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="6">
-        <v>24326256.280000001</v>
+        <v>2736806.54</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1">
       <c r="A29" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="6">
-        <v>2736806.54</v>
+        <v>117459252.19</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1">
       <c r="A30" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="6">
-        <v>117459252.19</v>
+        <v>45354000</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1">
       <c r="A31" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="6">
-        <v>45354000</v>
+        <v>4573800.74</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1">
       <c r="A32" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F32" s="6">
-        <v>4573800.74</v>
+        <v>342711.34</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1">
       <c r="A33" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="6">
-        <v>342711.34</v>
+        <v>41326011.490000002</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1">
       <c r="A34" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="6">
-        <v>41326011.490000002</v>
+        <v>1632700.19</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1">
       <c r="A35" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="6">
-        <v>1632700.19</v>
+        <v>117468674.95</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1">
       <c r="A36" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="6">
-        <v>117468674.95</v>
+        <v>24544000</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="6">
-        <v>24544000</v>
+        <v>21541131.550000001</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F38" s="6">
-        <v>21541131.550000001</v>
+        <v>52894400</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="6">
-        <v>52894400</v>
+        <f>1883.4*1000</f>
+        <v>1883400</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="6">
-        <f>1883.4*1000</f>
-        <v>1883400</v>
+        <f>132702.7*1000</f>
+        <v>132702700.00000001</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="6">
-        <f>132702.7*1000</f>
-        <v>132702700.00000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1">
       <c r="A42" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="6">
-        <v>0</v>
+        <f>49391.4*1000</f>
+        <v>49391400</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1">
       <c r="A43" s="3">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="6">
-        <f>49391.4*1000</f>
-        <v>49391400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1">
       <c r="A44" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="6">
-        <v>0</v>
+        <f>59.36*1000</f>
+        <v>59360</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1">
       <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F45" s="6">
-        <f>59.36*1000</f>
-        <v>59360</v>
+        <v>36615700</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1">
       <c r="A46" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="6">
-        <v>36615700</v>
+        <f>2803.1*1000</f>
+        <v>2803100</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
       <c r="A47" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="6">
-        <f>2803.1*1000</f>
-        <v>2803100</v>
+        <f>177413.9*1000</f>
+        <v>177413900</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1">
       <c r="A48" s="3">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="6">
-        <f>177413.9*1000</f>
-        <v>177413900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1">
@@ -1520,605 +1518,545 @@
         <v>10</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="6">
-        <v>0</v>
+        <f>272.8*1000</f>
+        <v>272800</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1">
       <c r="A50" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="6">
-        <f>272.8*1000</f>
-        <v>272800</v>
+        <f>18678.4*1000</f>
+        <v>18678400</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1">
       <c r="A51" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="6">
-        <f>18678.4*1000</f>
-        <v>18678400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1">
       <c r="A52" s="3">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="6">
-        <v>0</v>
+        <v>2160010</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1">
       <c r="A53" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="6">
-        <v>1682070</v>
+        <v>1190370</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1">
       <c r="A54" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="6">
-        <v>1190370</v>
+        <v>23736100</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1">
       <c r="A55" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="6">
-        <v>23736100</v>
+        <v>2903180</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="6">
-        <v>2903180</v>
+        <v>202892160</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1">
       <c r="A57" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="6">
-        <v>202892160</v>
+        <v>4196800</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1">
       <c r="A58" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="6">
-        <v>4196800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F59" s="6">
-        <v>0</v>
+        <v>78123.5</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1">
       <c r="A60" s="3">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F60" s="6">
-        <v>477940</v>
+        <v>26411340.960000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1">
       <c r="A61" s="3">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F61" s="6">
-        <v>0</v>
+        <v>2284369.5699999998</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1">
       <c r="A62" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F62" s="6">
-        <v>78123.5</v>
+        <v>110138598.78</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1">
       <c r="A63" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F63" s="6">
-        <v>26411340.960000001</v>
+        <v>11245600</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F64" s="6">
-        <v>2284369.5699999998</v>
+        <v>89953.83</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F65" s="6">
-        <v>110138598.78</v>
+        <v>27856735.899999999</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F66" s="6">
-        <v>11245600</v>
+        <v>2323526.79</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1">
       <c r="A67" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F67" s="6">
-        <v>89953.83</v>
+        <v>127326985.68000001</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1">
       <c r="A68" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F68" s="6">
-        <v>27856735.899999999</v>
+        <v>18486100</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1">
       <c r="A69" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F69" s="6">
-        <v>2323526.79</v>
+        <v>3173023.34</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1">
       <c r="A70" s="3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F70" s="6">
-        <v>127326985.68000001</v>
+        <v>23946490</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1">
       <c r="A71" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F71" s="6">
-        <v>18486100</v>
+        <v>3221560</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1">
       <c r="A72" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F72" s="6">
-        <v>3173023.34</v>
+        <v>64135980</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1">
       <c r="A73" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="6">
-        <v>23946490</v>
+        <v>2129000</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1">
       <c r="A74" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="6">
-        <v>3221560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1">
       <c r="A75" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="6">
-        <v>64135980</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="2" customFormat="1">
-      <c r="A76" s="3">
-        <v>69</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="6">
-        <v>2129000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="2" customFormat="1">
-      <c r="A77" s="3">
-        <v>70</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="2" customFormat="1">
-      <c r="A78" s="3">
-        <v>71</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="6">
         <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2815A-62E6-FB41-83E0-6000122282F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$F$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$78</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="44">
   <si>
     <t>№ 
 п/п</t>
@@ -156,29 +157,18 @@
   </si>
   <si>
     <t>00-000002</t>
-  </si>
-  <si>
-    <t>Текущая дата: 03.11.2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,35 +234,32 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 4" xfId="2"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
+    <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,1580 +536,1572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="67.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="67.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A2" s="3">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6">
+        <v>281455.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1">
+      <c r="A3" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>43</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="6">
-        <v>281455.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26601660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="6">
-        <v>26601660</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4690580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6">
-        <v>4690580</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>118679020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6">
-        <v>118679020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16315000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="6">
-        <v>16315000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4590400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="3">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" s="6">
-        <v>4590400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65835899.999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>65835899.999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3079900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>3330600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>114436500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6">
-        <v>114436500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>204246000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>254046000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5089460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>5089460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1334120400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A14" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F14" s="6">
-        <v>1334120400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>348730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="6">
-        <v>348730</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35126520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="6">
-        <v>35126520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3243720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="6">
-        <v>3243720</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>102878350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="6">
-        <v>102878350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5046280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
       <c r="A19" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="6">
-        <v>5046280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21780690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A20" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="6">
-        <v>21780690</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>239085.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1">
       <c r="A21" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="6">
-        <v>239085.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24456972.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1">
       <c r="A22" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="6">
-        <v>24456972.73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2533532.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1">
       <c r="A23" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="6">
-        <v>2533532.42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>116723532.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1">
       <c r="A24" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="6">
-        <v>116723532.17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40161000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1">
       <c r="A25" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="6">
-        <v>40161000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>607712.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1">
       <c r="A26" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="6">
-        <v>607712.51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9012.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A27" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" s="6">
-        <v>9012.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>626930.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="6">
-        <v>626930.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24326256.280000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1">
       <c r="A29" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="6">
-        <v>24326256.280000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2736806.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1">
       <c r="A30" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="6">
-        <v>2736806.54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>117459252.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1">
       <c r="A31" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="6">
-        <v>117459252.19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45354000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1">
       <c r="A32" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="6">
-        <v>45354000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4573800.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A33" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F33" s="6">
-        <v>4573800.74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>342711.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1">
       <c r="A34" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="6">
-        <v>342711.34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41326011.490000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1">
       <c r="A35" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="6">
-        <v>41326011.490000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1632700.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1">
       <c r="A36" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="6">
-        <v>1632700.19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>117468674.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="6">
-        <v>117468674.95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24544000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="6">
-        <v>24544000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21541131.550000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F39" s="6">
-        <v>21541131.550000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52894400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="6">
-        <v>52894400</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3099900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="6">
-        <v>1915900</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132702700.00000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1">
       <c r="A42" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="6">
-        <v>132702700.00000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50342400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1">
       <c r="A43" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="6">
-        <v>542400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51492900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1">
       <c r="A44" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="6">
-        <v>49391400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A45" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>264500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1">
       <c r="A46" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="6">
-        <v>209800</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36615700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1">
       <c r="A47" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="6">
-        <v>36615700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2803100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1">
       <c r="A48" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="6">
-        <f>2803.1*1000</f>
-        <v>2803100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>175059400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1">
       <c r="A49" s="3">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="6">
-        <v>175059400</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A50" s="3">
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>272800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1">
       <c r="A51" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="6">
-        <f>272.8*1000</f>
-        <v>272800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18678400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1">
       <c r="A52" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="6">
-        <f>18678.4*1000</f>
-        <v>18678400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1">
       <c r="A53" s="3">
+        <v>66</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1682070</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1">
+      <c r="A54" s="3">
+        <v>67</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>66</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="6">
-        <v>1682070</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1190370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1">
       <c r="A55" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="6">
-        <v>1190370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23736100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="6">
-        <v>23736100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2903180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1">
       <c r="A57" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="6">
-        <v>2903180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202892160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="2" customFormat="1">
       <c r="A58" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="6">
-        <v>202892160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4196800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="6">
-        <v>4196800</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A60" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>477940</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1">
       <c r="A61" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="6">
-        <v>477940</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A62" s="3">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>78123.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1">
       <c r="A63" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="6">
-        <v>78123.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26411340.960000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F64" s="6">
-        <v>26411340.960000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2284369.5699999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F65" s="6">
-        <v>2284369.5699999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110138598.78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F66" s="6">
-        <v>110138598.78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11245600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A67" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F67" s="6">
-        <v>11245600</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>89953.83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1">
       <c r="A68" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>89953.83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27856735.899999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1">
       <c r="A69" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>27856735.899999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2323526.79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="2" customFormat="1">
       <c r="A70" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F70" s="6">
-        <v>2323526.79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>127326985.68000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1">
       <c r="A71" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F71" s="6">
-        <v>127326985.68000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18486100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1">
       <c r="A72" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F72" s="6">
-        <v>18486100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>65</v>
-      </c>
+        <v>3173023.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1">
+      <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F73" s="6">
-        <v>3173023.34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23946490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="2" customFormat="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="6">
-        <v>23946490</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3221560</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="6">
-        <v>3221560</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64135980</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="6">
-        <v>64135980</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2129000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="6">
-        <v>2129000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="6">
         <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F79"/>
+  <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2815A-62E6-FB41-83E0-6000122282F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0B86E6-23A0-9343-858B-4D9F8F4CE00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9560" yWindow="6040" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="44">
   <si>
     <t>№ 
 п/п</t>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -729,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>3079900</v>
+        <v>3159000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1">
@@ -769,7 +769,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="6">
-        <v>204246000</v>
+        <v>136846000</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
@@ -789,7 +789,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>5089460</v>
+        <v>5213800</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1">
@@ -809,16 +809,12 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>1334120400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="30">
-      <c r="A14" s="3">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>1334383000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
@@ -826,1282 +822,1302 @@
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>348730</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
+        <v>70770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A15" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="6">
-        <v>35126520</v>
+        <v>348730</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="6">
-        <v>3243720</v>
+        <v>35126520</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="6">
-        <v>102878350</v>
+        <v>3243720</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="6">
-        <v>5046280</v>
+        <v>102878350</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1">
       <c r="A19" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="6">
+        <v>5046280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
+      <c r="A20" s="3">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6">
         <v>21780690</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="30">
-      <c r="A20" s="3">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A21" s="3">
         <v>30</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6">
-        <v>239085.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
-      <c r="A21" s="3">
-        <v>31</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="6">
-        <v>24456972.73</v>
+        <v>239085.6</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1">
       <c r="A22" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="6">
-        <v>2533532.42</v>
+        <v>24456972.73</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1">
       <c r="A23" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="6">
-        <v>116723532.17</v>
+        <v>2533532.42</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1">
       <c r="A24" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="6">
-        <v>40161000</v>
+        <v>116723532.17</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1">
       <c r="A25" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="6">
-        <v>607712.51</v>
+        <v>40161000</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1">
       <c r="A26" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="6">
+        <v>607712.51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1">
+      <c r="A27" s="3">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="6">
         <v>9012.48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="30">
-      <c r="A27" s="3">
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A28" s="3">
         <v>37</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="6">
-        <v>626930.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
-      <c r="A28" s="3">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="6">
-        <v>24326256.280000001</v>
+        <v>626930.4</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1">
       <c r="A29" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="6">
-        <v>2736806.54</v>
+        <v>24326256.280000001</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1">
       <c r="A30" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="6">
-        <v>117459252.19</v>
+        <v>2736806.54</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1">
       <c r="A31" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="6">
-        <v>45354000</v>
+        <v>117459252.19</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1">
       <c r="A32" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="6">
+        <v>45354000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1">
+      <c r="A33" s="3">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="6">
         <v>4573800.74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" ht="30">
-      <c r="A33" s="3">
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A34" s="3">
         <v>49</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="6">
-        <v>342711.34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1">
-      <c r="A34" s="3">
-        <v>50</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="6">
-        <v>41326011.490000002</v>
+        <v>342711.34</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1">
       <c r="A35" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="6">
-        <v>1632700.19</v>
+        <v>41326011.490000002</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1">
       <c r="A36" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="6">
-        <v>117468674.95</v>
+        <v>1632700.19</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1">
       <c r="A37" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="6">
-        <v>24544000</v>
+        <v>117468674.95</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="6">
-        <v>21541131.550000001</v>
+        <v>24544000</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F39" s="6">
-        <v>52894400</v>
+        <v>21541131.550000001</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1">
       <c r="A40" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="6">
-        <v>3099900</v>
+        <v>45585000</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1">
       <c r="A41" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="6">
-        <v>132702700.00000001</v>
+        <v>2849200</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1">
       <c r="A42" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="6">
-        <v>50342400</v>
+        <v>145840400</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1">
       <c r="A43" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="6">
-        <v>51492900</v>
+        <v>117742400</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1">
       <c r="A44" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="30">
+        <v>51368500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1">
       <c r="A45" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="6">
-        <v>264500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A46" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" s="6">
-        <v>36615700</v>
+        <v>356200</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
       <c r="A47" s="3">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="6">
-        <v>2803100</v>
+        <v>36615700</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1">
       <c r="A48" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="6">
-        <v>175059400</v>
+        <v>2803100</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1">
       <c r="A49" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" ht="30">
+        <v>175059400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1">
       <c r="A50" s="3">
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="6">
-        <v>272800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A51" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="6">
-        <v>18678400</v>
+        <v>272800</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1">
       <c r="A52" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="6">
-        <v>0</v>
+        <v>18678400</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1">
       <c r="A53" s="3">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" s="6">
-        <v>1682070</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1">
       <c r="A54" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="6">
-        <v>1190370</v>
+        <v>1682070</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1">
       <c r="A55" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="6">
-        <v>23736100</v>
+        <v>1190370</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="6">
-        <v>2903180</v>
+        <v>23736100</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1">
       <c r="A57" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="6">
-        <v>202892160</v>
+        <v>2903180</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1">
       <c r="A58" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="6">
-        <v>4196800</v>
+        <v>202892160</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1">
       <c r="A59" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="30">
+        <v>4196800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1">
       <c r="A60" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="6">
-        <v>477940</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="2" customFormat="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A61" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="6">
+        <v>477940</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1">
+      <c r="A62" s="3">
+        <v>74</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="30">
-      <c r="A62" s="3">
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A63" s="3">
         <v>55</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="6">
-        <v>78123.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1">
-      <c r="A63" s="3">
-        <v>56</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="6">
-        <v>26411340.960000001</v>
+        <v>78123.5</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1">
       <c r="A64" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F64" s="6">
-        <v>2284369.5699999998</v>
+        <v>26411340.960000001</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1">
       <c r="A65" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F65" s="6">
-        <v>110138598.78</v>
+        <v>2284369.5699999998</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1">
       <c r="A66" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F66" s="6">
+        <v>110138598.78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1">
+      <c r="A67" s="3">
+        <v>59</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="6">
         <v>11245600</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="30">
-      <c r="A67" s="3">
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A68" s="3">
         <v>60</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="6">
-        <v>89953.83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="2" customFormat="1">
-      <c r="A68" s="3">
-        <v>61</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F68" s="6">
-        <v>27856735.899999999</v>
+        <v>89953.83</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1">
       <c r="A69" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F69" s="6">
-        <v>2323526.79</v>
+        <v>27856735.899999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1">
       <c r="A70" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F70" s="6">
-        <v>127326985.68000001</v>
+        <v>2323526.79</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1">
       <c r="A71" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F71" s="6">
-        <v>18486100</v>
+        <v>127326985.68000001</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1">
       <c r="A72" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F72" s="6">
+        <v>18486100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1">
+      <c r="A73" s="3">
+        <v>65</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="6">
         <v>3173023.34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="6">
-        <v>23946490</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="6">
-        <v>3221560</v>
+        <v>23946490</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="6">
-        <v>64135980</v>
+        <v>3221560</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="6">
-        <v>2129000</v>
+        <v>64135980</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="30">
+        <v>2129000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="6">
         <v>319870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0B86E6-23A0-9343-858B-4D9F8F4CE00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96EB71-EB09-614C-896B-A825EB4F247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="6040" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6">
-        <v>65835899.999999993</v>
+        <v>174541500</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1">
@@ -729,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>3159000</v>
+        <v>2822800</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1">
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>114436500</v>
+        <v>92864600</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
@@ -769,7 +769,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="6">
-        <v>136846000</v>
+        <v>40306000</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
@@ -789,7 +789,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>5213800</v>
+        <v>5492700</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1">
@@ -809,7 +809,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>1334383000</v>
+        <v>35217400</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1">
@@ -825,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>70770</v>
+        <v>228600</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="30">
@@ -1345,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="6">
-        <v>45585000</v>
+        <v>45166500</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1">
@@ -1365,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="6">
-        <v>2849200</v>
+        <v>3099900</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1">
@@ -1405,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="6">
-        <v>117742400</v>
+        <v>214542400</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1">

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96EB71-EB09-614C-896B-A825EB4F247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7C629-A039-FB4B-A0A1-1B5F75602F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -825,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>228600</v>
+        <v>329200</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="30">

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7C629-A039-FB4B-A0A1-1B5F75602F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43515850-9D4A-4841-9F40-53E9A17548F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="44">
   <si>
     <t>№ 
 п/п</t>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6">
-        <v>174541500</v>
+        <v>174541400</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1">
@@ -729,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>2822800</v>
+        <v>3122400</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1">
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>92864600</v>
+        <v>93510000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
@@ -809,12 +809,14 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>35217400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
+        <v>262600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
@@ -825,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>329200</v>
+        <v>415500</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="30">

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43515850-9D4A-4841-9F40-53E9A17548F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96EB71-EB09-614C-896B-A825EB4F247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="44">
   <si>
     <t>№ 
 п/п</t>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6">
-        <v>174541400</v>
+        <v>174541500</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1">
@@ -729,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>3122400</v>
+        <v>2822800</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1">
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>93510000</v>
+        <v>92864600</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
@@ -809,14 +809,12 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>262600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="30">
+        <v>35217400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
@@ -827,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>415500</v>
+        <v>228600</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="30">

--- a/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/36/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96EB71-EB09-614C-896B-A825EB4F247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43515850-9D4A-4841-9F40-53E9A17548F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="44">
   <si>
     <t>№ 
 п/п</t>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6">
-        <v>174541500</v>
+        <v>174541400</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1">
@@ -729,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>2822800</v>
+        <v>3122400</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1">
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>92864600</v>
+        <v>93510000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
@@ -809,12 +809,14 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>35217400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
+        <v>262600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
@@ -825,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>228600</v>
+        <v>415500</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="30">
